--- a/Tekken 8 Moveset Editing Data.xlsx
+++ b/Tekken 8 Moveset Editing Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cSles\Desktop\Modding\Tekken8Movesets_OWN_PROJECTS\extracted_chars\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cs\Documents\GitHub\Tekken8Movesets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7793E5C-6A0B-4B60-8927-A1882882A8A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D8FCDDC-DF47-4404-AF29-B7A2029B8E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="1" r:id="rId1"/>
@@ -6073,7 +6073,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6300,6 +6300,15 @@
     <xf numFmtId="49" fontId="2" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6313,14 +6322,8 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6547,15 +6550,15 @@
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="51.1796875" customWidth="1"/>
-    <col min="4" max="4" width="68.81640625" customWidth="1"/>
+    <col min="3" max="3" width="51.140625" customWidth="1"/>
+    <col min="4" max="4" width="68.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6569,7 +6572,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1100</v>
       </c>
@@ -6583,7 +6586,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>0</v>
       </c>
@@ -6595,7 +6598,7 @@
       </c>
       <c r="D3" s="8"/>
     </row>
-    <row r="4" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -6609,7 +6612,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="75.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -6623,7 +6626,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -6635,7 +6638,7 @@
       </c>
       <c r="D6" s="8"/>
     </row>
-    <row r="7" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -6647,7 +6650,7 @@
       </c>
       <c r="D7" s="8"/>
     </row>
-    <row r="8" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -6659,7 +6662,7 @@
       </c>
       <c r="D8" s="8"/>
     </row>
-    <row r="9" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -6671,7 +6674,7 @@
       </c>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -6683,7 +6686,7 @@
       </c>
       <c r="D10" s="8"/>
     </row>
-    <row r="11" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -6695,7 +6698,7 @@
       </c>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -6707,7 +6710,7 @@
       </c>
       <c r="D12" s="8"/>
     </row>
-    <row r="13" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>10</v>
       </c>
@@ -6719,7 +6722,7 @@
       </c>
       <c r="D13" s="8"/>
     </row>
-    <row r="14" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>11</v>
       </c>
@@ -6731,7 +6734,7 @@
       </c>
       <c r="D14" s="8"/>
     </row>
-    <row r="15" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>12</v>
       </c>
@@ -6743,7 +6746,7 @@
       </c>
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>13</v>
       </c>
@@ -6755,7 +6758,7 @@
       </c>
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>14</v>
       </c>
@@ -6767,7 +6770,7 @@
       </c>
       <c r="D17" s="8"/>
     </row>
-    <row r="18" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>15</v>
       </c>
@@ -6779,7 +6782,7 @@
       </c>
       <c r="D18" s="8"/>
     </row>
-    <row r="19" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>16</v>
       </c>
@@ -6791,7 +6794,7 @@
       </c>
       <c r="D19" s="8"/>
     </row>
-    <row r="20" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>17</v>
       </c>
@@ -6803,7 +6806,7 @@
       </c>
       <c r="D20" s="8"/>
     </row>
-    <row r="21" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>18</v>
       </c>
@@ -6815,7 +6818,7 @@
       </c>
       <c r="D21" s="8"/>
     </row>
-    <row r="22" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>23</v>
       </c>
@@ -6827,7 +6830,7 @@
       </c>
       <c r="D22" s="8"/>
     </row>
-    <row r="23" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>24</v>
       </c>
@@ -6839,7 +6842,7 @@
       </c>
       <c r="D23" s="8"/>
     </row>
-    <row r="24" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>25</v>
       </c>
@@ -6851,7 +6854,7 @@
       </c>
       <c r="D24" s="8"/>
     </row>
-    <row r="25" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>26</v>
       </c>
@@ -6863,7 +6866,7 @@
       </c>
       <c r="D25" s="8"/>
     </row>
-    <row r="26" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>27</v>
       </c>
@@ -6875,7 +6878,7 @@
       </c>
       <c r="D26" s="8"/>
     </row>
-    <row r="27" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>28</v>
       </c>
@@ -6887,7 +6890,7 @@
       </c>
       <c r="D27" s="8"/>
     </row>
-    <row r="28" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>29</v>
       </c>
@@ -6899,7 +6902,7 @@
       </c>
       <c r="D28" s="8"/>
     </row>
-    <row r="29" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
         <v>30</v>
       </c>
@@ -6911,7 +6914,7 @@
       </c>
       <c r="D29" s="8"/>
     </row>
-    <row r="30" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
         <v>31</v>
       </c>
@@ -6923,7 +6926,7 @@
       </c>
       <c r="D30" s="8"/>
     </row>
-    <row r="31" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
         <v>32</v>
       </c>
@@ -6935,7 +6938,7 @@
       </c>
       <c r="D31" s="8"/>
     </row>
-    <row r="32" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
         <v>33</v>
       </c>
@@ -6947,7 +6950,7 @@
       </c>
       <c r="D32" s="8"/>
     </row>
-    <row r="33" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
         <v>34</v>
       </c>
@@ -6959,7 +6962,7 @@
       </c>
       <c r="D33" s="8"/>
     </row>
-    <row r="34" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
         <v>35</v>
       </c>
@@ -6973,7 +6976,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
         <v>36</v>
       </c>
@@ -6987,7 +6990,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="9">
         <v>43</v>
       </c>
@@ -7001,7 +7004,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
         <v>44</v>
       </c>
@@ -7015,7 +7018,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
         <v>47</v>
       </c>
@@ -7029,7 +7032,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="6">
         <v>48</v>
       </c>
@@ -7043,7 +7046,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="6">
         <v>49</v>
       </c>
@@ -7057,7 +7060,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="9">
         <v>50</v>
       </c>
@@ -7069,7 +7072,7 @@
       </c>
       <c r="D41" s="11"/>
     </row>
-    <row r="42" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A42" s="6">
         <v>51</v>
       </c>
@@ -7083,7 +7086,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="6">
         <v>61</v>
       </c>
@@ -7095,7 +7098,7 @@
       </c>
       <c r="D43" s="8"/>
     </row>
-    <row r="44" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="6">
         <v>62</v>
       </c>
@@ -7109,7 +7112,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
         <v>63</v>
       </c>
@@ -7121,7 +7124,7 @@
       </c>
       <c r="D45" s="8"/>
     </row>
-    <row r="46" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
         <v>64</v>
       </c>
@@ -7133,7 +7136,7 @@
       </c>
       <c r="D46" s="8"/>
     </row>
-    <row r="47" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="6">
         <v>65</v>
       </c>
@@ -7147,7 +7150,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="6">
         <v>66</v>
       </c>
@@ -7159,7 +7162,7 @@
       </c>
       <c r="D48" s="8"/>
     </row>
-    <row r="49" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="6">
         <v>67</v>
       </c>
@@ -7171,7 +7174,7 @@
       </c>
       <c r="D49" s="8"/>
     </row>
-    <row r="50" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="6">
         <v>68</v>
       </c>
@@ -7183,7 +7186,7 @@
       </c>
       <c r="D50" s="8"/>
     </row>
-    <row r="51" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="6">
         <v>69</v>
       </c>
@@ -7195,7 +7198,7 @@
       </c>
       <c r="D51" s="8"/>
     </row>
-    <row r="52" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="6">
         <v>70</v>
       </c>
@@ -7207,7 +7210,7 @@
       </c>
       <c r="D52" s="8"/>
     </row>
-    <row r="53" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="6">
         <v>71</v>
       </c>
@@ -7219,7 +7222,7 @@
       </c>
       <c r="D53" s="8"/>
     </row>
-    <row r="54" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="6">
         <v>72</v>
       </c>
@@ -7233,7 +7236,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A55" s="6">
         <v>73</v>
       </c>
@@ -7247,7 +7250,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="6">
         <v>76</v>
       </c>
@@ -7259,7 +7262,7 @@
       </c>
       <c r="D56" s="8"/>
     </row>
-    <row r="57" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="6">
         <v>77</v>
       </c>
@@ -7271,7 +7274,7 @@
       </c>
       <c r="D57" s="8"/>
     </row>
-    <row r="58" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="9">
         <v>87</v>
       </c>
@@ -7283,7 +7286,7 @@
       </c>
       <c r="D58" s="11"/>
     </row>
-    <row r="59" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="6">
         <v>92</v>
       </c>
@@ -7295,7 +7298,7 @@
       </c>
       <c r="D59" s="8"/>
     </row>
-    <row r="60" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="6">
         <v>93</v>
       </c>
@@ -7307,7 +7310,7 @@
       </c>
       <c r="D60" s="8"/>
     </row>
-    <row r="61" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="6">
         <v>94</v>
       </c>
@@ -7319,7 +7322,7 @@
       </c>
       <c r="D61" s="8"/>
     </row>
-    <row r="62" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="6">
         <v>95</v>
       </c>
@@ -7331,7 +7334,7 @@
       </c>
       <c r="D62" s="8"/>
     </row>
-    <row r="63" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="6">
         <v>96</v>
       </c>
@@ -7343,7 +7346,7 @@
       </c>
       <c r="D63" s="8"/>
     </row>
-    <row r="64" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="6">
         <v>97</v>
       </c>
@@ -7355,7 +7358,7 @@
       </c>
       <c r="D64" s="8"/>
     </row>
-    <row r="65" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="6">
         <v>98</v>
       </c>
@@ -7367,7 +7370,7 @@
       </c>
       <c r="D65" s="8"/>
     </row>
-    <row r="66" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="6">
         <v>99</v>
       </c>
@@ -7379,7 +7382,7 @@
       </c>
       <c r="D66" s="8"/>
     </row>
-    <row r="67" spans="1:4" ht="26" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A67" s="6">
         <v>100</v>
       </c>
@@ -7393,7 +7396,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="6">
         <v>101</v>
       </c>
@@ -7405,7 +7408,7 @@
       </c>
       <c r="D68" s="8"/>
     </row>
-    <row r="69" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="6">
         <v>102</v>
       </c>
@@ -7417,7 +7420,7 @@
       </c>
       <c r="D69" s="8"/>
     </row>
-    <row r="70" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="6">
         <v>103</v>
       </c>
@@ -7429,7 +7432,7 @@
       </c>
       <c r="D70" s="8"/>
     </row>
-    <row r="71" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="6">
         <v>104</v>
       </c>
@@ -7441,7 +7444,7 @@
       </c>
       <c r="D71" s="8"/>
     </row>
-    <row r="72" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="6">
         <v>105</v>
       </c>
@@ -7453,7 +7456,7 @@
       </c>
       <c r="D72" s="8"/>
     </row>
-    <row r="73" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="6">
         <v>106</v>
       </c>
@@ -7465,7 +7468,7 @@
       </c>
       <c r="D73" s="8"/>
     </row>
-    <row r="74" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="6">
         <v>107</v>
       </c>
@@ -7479,7 +7482,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="6">
         <v>108</v>
       </c>
@@ -7491,7 +7494,7 @@
       </c>
       <c r="D75" s="8"/>
     </row>
-    <row r="76" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="6">
         <v>109</v>
       </c>
@@ -7503,7 +7506,7 @@
       </c>
       <c r="D76" s="8"/>
     </row>
-    <row r="77" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="6">
         <v>110</v>
       </c>
@@ -7515,7 +7518,7 @@
       </c>
       <c r="D77" s="8"/>
     </row>
-    <row r="78" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="6">
         <v>111</v>
       </c>
@@ -7527,7 +7530,7 @@
       </c>
       <c r="D78" s="8"/>
     </row>
-    <row r="79" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="6">
         <v>112</v>
       </c>
@@ -7539,7 +7542,7 @@
       </c>
       <c r="D79" s="8"/>
     </row>
-    <row r="80" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="6">
         <v>126</v>
       </c>
@@ -7551,7 +7554,7 @@
       </c>
       <c r="D80" s="8"/>
     </row>
-    <row r="81" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="6">
         <v>127</v>
       </c>
@@ -7563,7 +7566,7 @@
       </c>
       <c r="D81" s="8"/>
     </row>
-    <row r="82" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="6">
         <v>128</v>
       </c>
@@ -7575,7 +7578,7 @@
       </c>
       <c r="D82" s="8"/>
     </row>
-    <row r="83" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="6">
         <v>130</v>
       </c>
@@ -7587,7 +7590,7 @@
       </c>
       <c r="D83" s="8"/>
     </row>
-    <row r="84" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84" s="6">
         <v>131</v>
       </c>
@@ -7601,7 +7604,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85" s="6">
         <v>132</v>
       </c>
@@ -7615,7 +7618,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86" s="6">
         <v>133</v>
       </c>
@@ -7629,7 +7632,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A87" s="6">
         <v>134</v>
       </c>
@@ -7641,7 +7644,7 @@
       </c>
       <c r="D87" s="8"/>
     </row>
-    <row r="88" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="6">
         <v>135</v>
       </c>
@@ -7653,7 +7656,7 @@
       </c>
       <c r="D88" s="8"/>
     </row>
-    <row r="89" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A89" s="6">
         <v>137</v>
       </c>
@@ -7665,7 +7668,7 @@
       </c>
       <c r="D89" s="8"/>
     </row>
-    <row r="90" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="12">
         <v>138</v>
       </c>
@@ -7677,7 +7680,7 @@
       </c>
       <c r="D90" s="12"/>
     </row>
-    <row r="91" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="6">
         <v>139</v>
       </c>
@@ -7689,7 +7692,7 @@
       </c>
       <c r="D91" s="8"/>
     </row>
-    <row r="92" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A92" s="6">
         <v>140</v>
       </c>
@@ -7703,7 +7706,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A93" s="6">
         <v>141</v>
       </c>
@@ -7717,7 +7720,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="6">
         <v>142</v>
       </c>
@@ -7731,7 +7734,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="6">
         <v>143</v>
       </c>
@@ -7745,7 +7748,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A96" s="6">
         <v>144</v>
       </c>
@@ -7757,7 +7760,7 @@
       </c>
       <c r="D96" s="8"/>
     </row>
-    <row r="97" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A97" s="6">
         <v>145</v>
       </c>
@@ -7769,7 +7772,7 @@
       </c>
       <c r="D97" s="8"/>
     </row>
-    <row r="98" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A98" s="6">
         <v>146</v>
       </c>
@@ -7783,7 +7786,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" s="6">
         <v>147</v>
       </c>
@@ -7797,7 +7800,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A100" s="6">
         <v>148</v>
       </c>
@@ -7809,7 +7812,7 @@
       </c>
       <c r="D100" s="8"/>
     </row>
-    <row r="101" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A101" s="6">
         <v>149</v>
       </c>
@@ -7821,7 +7824,7 @@
       </c>
       <c r="D101" s="8"/>
     </row>
-    <row r="102" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A102" s="6">
         <v>150</v>
       </c>
@@ -7833,7 +7836,7 @@
       </c>
       <c r="D102" s="8"/>
     </row>
-    <row r="103" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A103" s="6">
         <v>151</v>
       </c>
@@ -7845,7 +7848,7 @@
       </c>
       <c r="D103" s="8"/>
     </row>
-    <row r="104" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A104" s="9">
         <v>152</v>
       </c>
@@ -7857,7 +7860,7 @@
       </c>
       <c r="D104" s="9"/>
     </row>
-    <row r="105" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A105" s="9">
         <v>153</v>
       </c>
@@ -7869,7 +7872,7 @@
       </c>
       <c r="D105" s="9"/>
     </row>
-    <row r="106" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A106" s="6">
         <v>157</v>
       </c>
@@ -7883,7 +7886,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A107" s="6">
         <v>158</v>
       </c>
@@ -7895,7 +7898,7 @@
       </c>
       <c r="D107" s="8"/>
     </row>
-    <row r="108" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A108" s="6">
         <v>159</v>
       </c>
@@ -7909,7 +7912,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="26" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A109" s="9">
         <v>168</v>
       </c>
@@ -7921,7 +7924,7 @@
       </c>
       <c r="D109" s="9"/>
     </row>
-    <row r="110" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A110" s="6">
         <v>184</v>
       </c>
@@ -7935,7 +7938,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A111" s="6">
         <v>192</v>
       </c>
@@ -7949,7 +7952,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A112" s="9">
         <v>219</v>
       </c>
@@ -7963,7 +7966,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A113" s="6">
         <v>220</v>
       </c>
@@ -7975,7 +7978,7 @@
       </c>
       <c r="D113" s="8"/>
     </row>
-    <row r="114" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A114" s="6">
         <v>221</v>
       </c>
@@ -7987,7 +7990,7 @@
       </c>
       <c r="D114" s="8"/>
     </row>
-    <row r="115" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A115" s="6">
         <v>222</v>
       </c>
@@ -7999,7 +8002,7 @@
       </c>
       <c r="D115" s="8"/>
     </row>
-    <row r="116" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A116" s="6">
         <v>223</v>
       </c>
@@ -8011,7 +8014,7 @@
       </c>
       <c r="D116" s="8"/>
     </row>
-    <row r="117" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A117" s="6">
         <v>224</v>
       </c>
@@ -8023,7 +8026,7 @@
       </c>
       <c r="D117" s="6"/>
     </row>
-    <row r="118" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A118" s="6">
         <v>225</v>
       </c>
@@ -8035,7 +8038,7 @@
       </c>
       <c r="D118" s="6"/>
     </row>
-    <row r="119" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A119" s="6">
         <v>226</v>
       </c>
@@ -8049,7 +8052,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A120" s="6">
         <v>227</v>
       </c>
@@ -8063,7 +8066,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A121" s="6">
         <v>228</v>
       </c>
@@ -8077,7 +8080,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A122" s="6">
         <v>229</v>
       </c>
@@ -8091,7 +8094,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A123" s="12">
         <v>236</v>
       </c>
@@ -8103,7 +8106,7 @@
       </c>
       <c r="D123" s="12"/>
     </row>
-    <row r="124" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A124" s="13">
         <v>238</v>
       </c>
@@ -8117,7 +8120,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A125" s="12">
         <v>259</v>
       </c>
@@ -8129,7 +8132,7 @@
       </c>
       <c r="D125" s="12"/>
     </row>
-    <row r="126" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A126" s="12">
         <v>274</v>
       </c>
@@ -8141,7 +8144,7 @@
       </c>
       <c r="D126" s="12"/>
     </row>
-    <row r="127" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A127" s="12">
         <v>276</v>
       </c>
@@ -8153,7 +8156,7 @@
       </c>
       <c r="D127" s="12"/>
     </row>
-    <row r="128" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A128" s="12">
         <v>280</v>
       </c>
@@ -8165,7 +8168,7 @@
       </c>
       <c r="D128" s="12"/>
     </row>
-    <row r="129" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A129" s="12">
         <v>281</v>
       </c>
@@ -8177,7 +8180,7 @@
       </c>
       <c r="D129" s="12"/>
     </row>
-    <row r="130" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A130" s="12">
         <v>282</v>
       </c>
@@ -8189,7 +8192,7 @@
       </c>
       <c r="D130" s="12"/>
     </row>
-    <row r="131" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A131" s="12">
         <v>283</v>
       </c>
@@ -8201,7 +8204,7 @@
       </c>
       <c r="D131" s="12"/>
     </row>
-    <row r="132" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A132" s="12">
         <v>288</v>
       </c>
@@ -8215,7 +8218,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A133" s="12">
         <v>297</v>
       </c>
@@ -8227,7 +8230,7 @@
       </c>
       <c r="D133" s="12"/>
     </row>
-    <row r="134" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A134" s="12">
         <v>312</v>
       </c>
@@ -8239,7 +8242,7 @@
       </c>
       <c r="D134" s="12"/>
     </row>
-    <row r="135" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A135" s="12">
         <v>314</v>
       </c>
@@ -8251,7 +8254,7 @@
       </c>
       <c r="D135" s="12"/>
     </row>
-    <row r="136" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A136" s="12">
         <v>318</v>
       </c>
@@ -8263,7 +8266,7 @@
       </c>
       <c r="D136" s="12"/>
     </row>
-    <row r="137" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A137" s="12">
         <v>319</v>
       </c>
@@ -8275,7 +8278,7 @@
       </c>
       <c r="D137" s="12"/>
     </row>
-    <row r="138" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A138" s="12">
         <v>320</v>
       </c>
@@ -8287,7 +8290,7 @@
       </c>
       <c r="D138" s="12"/>
     </row>
-    <row r="139" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A139" s="12">
         <v>321</v>
       </c>
@@ -8299,7 +8302,7 @@
       </c>
       <c r="D139" s="12"/>
     </row>
-    <row r="140" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A140" s="12">
         <v>326</v>
       </c>
@@ -8313,7 +8316,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A141" s="12">
         <v>335</v>
       </c>
@@ -8325,7 +8328,7 @@
       </c>
       <c r="D141" s="12"/>
     </row>
-    <row r="142" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A142" s="12">
         <v>350</v>
       </c>
@@ -8339,7 +8342,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A143" s="12">
         <v>352</v>
       </c>
@@ -8351,7 +8354,7 @@
       </c>
       <c r="D143" s="12"/>
     </row>
-    <row r="144" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A144" s="12">
         <v>356</v>
       </c>
@@ -8363,7 +8366,7 @@
       </c>
       <c r="D144" s="12"/>
     </row>
-    <row r="145" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A145" s="12">
         <v>358</v>
       </c>
@@ -8375,7 +8378,7 @@
       </c>
       <c r="D145" s="12"/>
     </row>
-    <row r="146" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A146" s="12">
         <v>359</v>
       </c>
@@ -8387,7 +8390,7 @@
       </c>
       <c r="D146" s="12"/>
     </row>
-    <row r="147" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A147" s="12">
         <v>360</v>
       </c>
@@ -8399,7 +8402,7 @@
       </c>
       <c r="D147" s="12"/>
     </row>
-    <row r="148" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A148" s="12">
         <v>365</v>
       </c>
@@ -8413,7 +8416,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A149" s="12">
         <v>442</v>
       </c>
@@ -8425,7 +8428,7 @@
       </c>
       <c r="D149" s="12"/>
     </row>
-    <row r="150" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A150" s="12">
         <v>454</v>
       </c>
@@ -8439,7 +8442,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A151" s="13">
         <v>466</v>
       </c>
@@ -8453,7 +8456,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A152" s="6">
         <v>473</v>
       </c>
@@ -8467,7 +8470,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A153" s="14">
         <v>490</v>
       </c>
@@ -8481,7 +8484,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A154" s="14">
         <v>498</v>
       </c>
@@ -8495,7 +8498,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A155" s="16">
         <v>499</v>
       </c>
@@ -8509,7 +8512,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A156" s="16">
         <v>500</v>
       </c>
@@ -8521,7 +8524,7 @@
       </c>
       <c r="D156" s="19"/>
     </row>
-    <row r="157" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A157" s="16">
         <v>501</v>
       </c>
@@ -8533,7 +8536,7 @@
       </c>
       <c r="D157" s="19"/>
     </row>
-    <row r="158" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A158" s="16">
         <v>502</v>
       </c>
@@ -8545,7 +8548,7 @@
       </c>
       <c r="D158" s="19"/>
     </row>
-    <row r="159" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A159" s="16">
         <v>503</v>
       </c>
@@ -8557,7 +8560,7 @@
       </c>
       <c r="D159" s="19"/>
     </row>
-    <row r="160" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A160" s="16">
         <v>504</v>
       </c>
@@ -8569,7 +8572,7 @@
       </c>
       <c r="D160" s="6"/>
     </row>
-    <row r="161" spans="1:4" ht="38" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A161" s="16">
         <v>505</v>
       </c>
@@ -8583,7 +8586,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A162" s="16">
         <v>506</v>
       </c>
@@ -8595,7 +8598,7 @@
       </c>
       <c r="D162" s="19"/>
     </row>
-    <row r="163" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A163" s="14">
         <v>640</v>
       </c>
@@ -8609,7 +8612,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A164" s="14">
         <v>641</v>
       </c>
@@ -8623,7 +8626,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A165" s="14">
         <v>642</v>
       </c>
@@ -8637,7 +8640,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A166" s="12">
         <v>648</v>
       </c>
@@ -8651,7 +8654,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A167" s="12">
         <v>649</v>
       </c>
@@ -8665,7 +8668,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A168" s="12">
         <v>652</v>
       </c>
@@ -8679,7 +8682,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A169" s="12">
         <v>653</v>
       </c>
@@ -8693,7 +8696,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A170" s="12">
         <v>654</v>
       </c>
@@ -8707,7 +8710,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A171" s="12">
         <v>655</v>
       </c>
@@ -8721,7 +8724,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A172" s="12">
         <v>656</v>
       </c>
@@ -8735,7 +8738,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A173" s="12">
         <v>657</v>
       </c>
@@ -8749,7 +8752,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A174" s="12">
         <v>658</v>
       </c>
@@ -8763,7 +8766,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A175" s="12">
         <v>659</v>
       </c>
@@ -8777,7 +8780,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A176" s="12">
         <v>660</v>
       </c>
@@ -8791,7 +8794,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="38" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A177" s="6">
         <v>661</v>
       </c>
@@ -8805,7 +8808,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A178" s="13">
         <v>662</v>
       </c>
@@ -8817,7 +8820,7 @@
       </c>
       <c r="D178" s="13"/>
     </row>
-    <row r="179" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A179" s="12">
         <v>664</v>
       </c>
@@ -8831,7 +8834,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A180" s="12">
         <v>666</v>
       </c>
@@ -8845,7 +8848,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A181" s="12">
         <v>667</v>
       </c>
@@ -8859,7 +8862,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A182" s="12">
         <v>668</v>
       </c>
@@ -8873,7 +8876,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A183" s="12">
         <v>672</v>
       </c>
@@ -8887,7 +8890,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A184" s="12">
         <v>687</v>
       </c>
@@ -8901,7 +8904,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A185" s="12">
         <v>689</v>
       </c>
@@ -8915,7 +8918,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A186" s="12">
         <v>690</v>
       </c>
@@ -8927,7 +8930,7 @@
       </c>
       <c r="D186" s="12"/>
     </row>
-    <row r="187" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A187" s="12">
         <v>691</v>
       </c>
@@ -8941,7 +8944,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A188" s="12">
         <v>692</v>
       </c>
@@ -8955,7 +8958,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A189" s="12">
         <v>693</v>
       </c>
@@ -8967,7 +8970,7 @@
       </c>
       <c r="D189" s="12"/>
     </row>
-    <row r="190" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A190" s="12">
         <v>694</v>
       </c>
@@ -8981,7 +8984,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A191" s="12">
         <v>695</v>
       </c>
@@ -8993,7 +8996,7 @@
       </c>
       <c r="D191" s="12"/>
     </row>
-    <row r="192" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A192" s="12">
         <v>696</v>
       </c>
@@ -9007,7 +9010,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A193" s="12">
         <v>716</v>
       </c>
@@ -9019,7 +9022,7 @@
       </c>
       <c r="D193" s="12"/>
     </row>
-    <row r="194" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A194" s="12">
         <v>717</v>
       </c>
@@ -9031,7 +9034,7 @@
       </c>
       <c r="D194" s="12"/>
     </row>
-    <row r="195" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A195" s="12">
         <v>718</v>
       </c>
@@ -9045,7 +9048,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A196" s="12">
         <v>723</v>
       </c>
@@ -9059,7 +9062,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A197" s="12">
         <v>724</v>
       </c>
@@ -9071,7 +9074,7 @@
       </c>
       <c r="D197" s="12"/>
     </row>
-    <row r="198" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A198" s="12">
         <v>750</v>
       </c>
@@ -9085,7 +9088,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A199" s="12">
         <v>751</v>
       </c>
@@ -9099,7 +9102,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A200" s="13">
         <v>755</v>
       </c>
@@ -9113,7 +9116,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A201" s="12">
         <v>758</v>
       </c>
@@ -9125,7 +9128,7 @@
       </c>
       <c r="D201" s="12"/>
     </row>
-    <row r="202" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A202" s="13">
         <v>766</v>
       </c>
@@ -9139,7 +9142,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A203" s="13">
         <v>767</v>
       </c>
@@ -9153,7 +9156,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="38" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A204" s="12">
         <v>777</v>
       </c>
@@ -9167,7 +9170,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A205" s="12">
         <v>778</v>
       </c>
@@ -9181,7 +9184,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="26" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A206" s="13">
         <v>783</v>
       </c>
@@ -9195,7 +9198,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="26" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A207" s="13">
         <v>784</v>
       </c>
@@ -9209,7 +9212,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="26" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A208" s="13">
         <v>785</v>
       </c>
@@ -9223,7 +9226,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A209" s="12">
         <v>790</v>
       </c>
@@ -9235,7 +9238,7 @@
       </c>
       <c r="D209" s="12"/>
     </row>
-    <row r="210" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A210" s="12">
         <v>791</v>
       </c>
@@ -9247,7 +9250,7 @@
       </c>
       <c r="D210" s="12"/>
     </row>
-    <row r="211" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A211" s="12">
         <v>792</v>
       </c>
@@ -9259,7 +9262,7 @@
       </c>
       <c r="D211" s="12"/>
     </row>
-    <row r="212" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A212" s="12">
         <v>793</v>
       </c>
@@ -9271,7 +9274,7 @@
       </c>
       <c r="D212" s="12"/>
     </row>
-    <row r="213" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A213" s="12">
         <v>794</v>
       </c>
@@ -9283,7 +9286,7 @@
       </c>
       <c r="D213" s="12"/>
     </row>
-    <row r="214" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A214" s="12">
         <v>795</v>
       </c>
@@ -9295,7 +9298,7 @@
       </c>
       <c r="D214" s="12"/>
     </row>
-    <row r="215" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A215" s="12">
         <v>796</v>
       </c>
@@ -9309,7 +9312,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A216" s="13">
         <v>799</v>
       </c>
@@ -9321,7 +9324,7 @@
       </c>
       <c r="D216" s="13"/>
     </row>
-    <row r="217" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A217" s="13">
         <v>800</v>
       </c>
@@ -9333,7 +9336,7 @@
       </c>
       <c r="D217" s="13"/>
     </row>
-    <row r="218" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A218" s="12">
         <v>801</v>
       </c>
@@ -9345,7 +9348,7 @@
       </c>
       <c r="D218" s="12"/>
     </row>
-    <row r="219" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A219" s="12">
         <v>802</v>
       </c>
@@ -9357,7 +9360,7 @@
       </c>
       <c r="D219" s="12"/>
     </row>
-    <row r="220" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A220" s="12">
         <v>803</v>
       </c>
@@ -9369,7 +9372,7 @@
       </c>
       <c r="D220" s="12"/>
     </row>
-    <row r="221" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A221" s="13">
         <v>804</v>
       </c>
@@ -9383,7 +9386,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A222" s="12">
         <v>806</v>
       </c>
@@ -9397,7 +9400,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="26" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A223" s="13">
         <v>1016</v>
       </c>
@@ -9411,7 +9414,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A224" s="12">
         <v>1028</v>
       </c>
@@ -9425,7 +9428,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A225" s="23">
         <v>1032</v>
       </c>
@@ -9437,7 +9440,7 @@
       </c>
       <c r="D225" s="21"/>
     </row>
-    <row r="226" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A226" s="23">
         <v>1033</v>
       </c>
@@ -9449,7 +9452,7 @@
       </c>
       <c r="D226" s="21"/>
     </row>
-    <row r="227" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A227" s="12">
         <v>1034</v>
       </c>
@@ -9463,7 +9466,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A228" s="12">
         <v>1035</v>
       </c>
@@ -9477,7 +9480,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A229" s="23">
         <v>1036</v>
       </c>
@@ -9489,7 +9492,7 @@
       </c>
       <c r="D229" s="12"/>
     </row>
-    <row r="230" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A230" s="23">
         <v>1038</v>
       </c>
@@ -9501,7 +9504,7 @@
       </c>
       <c r="D230" s="12"/>
     </row>
-    <row r="231" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A231" s="23">
         <v>1039</v>
       </c>
@@ -9513,7 +9516,7 @@
       </c>
       <c r="D231" s="12"/>
     </row>
-    <row r="232" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A232" s="12">
         <v>1040</v>
       </c>
@@ -9525,7 +9528,7 @@
       </c>
       <c r="D232" s="12"/>
     </row>
-    <row r="233" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A233" s="12">
         <v>1041</v>
       </c>
@@ -9537,7 +9540,7 @@
       </c>
       <c r="D233" s="12"/>
     </row>
-    <row r="234" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A234" s="23">
         <v>1042</v>
       </c>
@@ -9549,7 +9552,7 @@
       </c>
       <c r="D234" s="12"/>
     </row>
-    <row r="235" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A235" s="12">
         <v>1049</v>
       </c>
@@ -9561,7 +9564,7 @@
       </c>
       <c r="D235" s="12"/>
     </row>
-    <row r="236" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A236" s="23">
         <v>1061</v>
       </c>
@@ -9573,7 +9576,7 @@
       </c>
       <c r="D236" s="25"/>
     </row>
-    <row r="237" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A237" s="23">
         <v>1062</v>
       </c>
@@ -9585,7 +9588,7 @@
       </c>
       <c r="D237" s="25"/>
     </row>
-    <row r="238" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A238" s="12">
         <v>1063</v>
       </c>
@@ -9597,7 +9600,7 @@
       </c>
       <c r="D238" s="25"/>
     </row>
-    <row r="239" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A239" s="12">
         <v>1064</v>
       </c>
@@ -9609,7 +9612,7 @@
       </c>
       <c r="D239" s="25"/>
     </row>
-    <row r="240" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A240" s="23">
         <v>1065</v>
       </c>
@@ -9623,7 +9626,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A241" s="23">
         <v>1067</v>
       </c>
@@ -9635,7 +9638,7 @@
       </c>
       <c r="D241" s="26"/>
     </row>
-    <row r="242" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A242" s="23">
         <v>1068</v>
       </c>
@@ -9647,7 +9650,7 @@
       </c>
       <c r="D242" s="26"/>
     </row>
-    <row r="243" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A243" s="12">
         <v>1069</v>
       </c>
@@ -9659,7 +9662,7 @@
       </c>
       <c r="D243" s="26"/>
     </row>
-    <row r="244" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A244" s="12">
         <v>1070</v>
       </c>
@@ -9671,7 +9674,7 @@
       </c>
       <c r="D244" s="26"/>
     </row>
-    <row r="245" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A245" s="23">
         <v>1071</v>
       </c>
@@ -9683,7 +9686,7 @@
       </c>
       <c r="D245" s="26"/>
     </row>
-    <row r="246" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A246" s="23">
         <v>1078</v>
       </c>
@@ -9697,7 +9700,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A247" s="23">
         <v>1079</v>
       </c>
@@ -9709,7 +9712,7 @@
       </c>
       <c r="D247" s="25"/>
     </row>
-    <row r="248" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A248" s="12">
         <v>1080</v>
       </c>
@@ -9723,7 +9726,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A249" s="12">
         <v>1081</v>
       </c>
@@ -9735,7 +9738,7 @@
       </c>
       <c r="D249" s="26"/>
     </row>
-    <row r="250" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A250" s="23">
         <v>1082</v>
       </c>
@@ -9749,7 +9752,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A251" s="23">
         <v>1083</v>
       </c>
@@ -9761,7 +9764,7 @@
       </c>
       <c r="D251" s="25"/>
     </row>
-    <row r="252" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A252" s="12">
         <v>1084</v>
       </c>
@@ -9773,7 +9776,7 @@
       </c>
       <c r="D252" s="25"/>
     </row>
-    <row r="253" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A253" s="12">
         <v>1085</v>
       </c>
@@ -9785,7 +9788,7 @@
       </c>
       <c r="D253" s="25"/>
     </row>
-    <row r="254" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A254" s="23">
         <v>1090</v>
       </c>
@@ -9797,7 +9800,7 @@
       </c>
       <c r="D254" s="25"/>
     </row>
-    <row r="255" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A255" s="23">
         <v>1091</v>
       </c>
@@ -9809,7 +9812,7 @@
       </c>
       <c r="D255" s="25"/>
     </row>
-    <row r="256" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A256" s="23">
         <v>1092</v>
       </c>
@@ -9821,7 +9824,7 @@
       </c>
       <c r="D256" s="25"/>
     </row>
-    <row r="257" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A257" s="23">
         <v>1093</v>
       </c>
@@ -9846,21 +9849,21 @@
   </sheetPr>
   <dimension ref="A1:E212"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C134" sqref="C134"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.453125" customWidth="1"/>
-    <col min="2" max="2" width="23.1796875" customWidth="1"/>
-    <col min="3" max="3" width="54.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="80.453125" customWidth="1"/>
-    <col min="5" max="5" width="34.1796875" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
+    <col min="3" max="3" width="54.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="80.42578125" customWidth="1"/>
+    <col min="5" max="5" width="34.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="s">
         <v>322</v>
       </c>
@@ -9877,7 +9880,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
         <v>327</v>
       </c>
@@ -9890,7 +9893,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="28" t="s">
         <v>329</v>
       </c>
@@ -9905,7 +9908,7 @@
       </c>
       <c r="E3" s="29"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="28" t="s">
         <v>332</v>
       </c>
@@ -9920,7 +9923,7 @@
       </c>
       <c r="E4" s="29"/>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="28" t="s">
         <v>335</v>
       </c>
@@ -9935,7 +9938,7 @@
       </c>
       <c r="E5" s="29"/>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="28" t="s">
         <v>338</v>
       </c>
@@ -9950,7 +9953,7 @@
       </c>
       <c r="E6" s="29"/>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="28" t="s">
         <v>341</v>
       </c>
@@ -9965,7 +9968,7 @@
       </c>
       <c r="E7" s="29"/>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="28" t="s">
         <v>345</v>
       </c>
@@ -9980,7 +9983,7 @@
       </c>
       <c r="E8" s="29"/>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="28" t="s">
         <v>347</v>
       </c>
@@ -9995,7 +9998,7 @@
       </c>
       <c r="E9" s="29"/>
     </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="28" t="s">
         <v>349</v>
       </c>
@@ -10010,7 +10013,7 @@
       </c>
       <c r="E10" s="29"/>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="28" t="s">
         <v>351</v>
       </c>
@@ -10025,7 +10028,7 @@
       </c>
       <c r="E11" s="29"/>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="28" t="s">
         <v>353</v>
       </c>
@@ -10040,7 +10043,7 @@
       </c>
       <c r="E12" s="29"/>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="28" t="s">
         <v>354</v>
       </c>
@@ -10055,7 +10058,7 @@
       </c>
       <c r="E13" s="29"/>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="28" t="s">
         <v>357</v>
       </c>
@@ -10070,7 +10073,7 @@
       </c>
       <c r="E14" s="29"/>
     </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="30" t="s">
         <v>360</v>
       </c>
@@ -10085,7 +10088,7 @@
       </c>
       <c r="E15" s="31"/>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="30" t="s">
         <v>363</v>
       </c>
@@ -10100,7 +10103,7 @@
       </c>
       <c r="E16" s="31"/>
     </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="30" t="s">
         <v>366</v>
       </c>
@@ -10113,7 +10116,7 @@
       <c r="D17" s="14"/>
       <c r="E17" s="31"/>
     </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="30" t="s">
         <v>368</v>
       </c>
@@ -10126,7 +10129,7 @@
       <c r="D18" s="14"/>
       <c r="E18" s="31"/>
     </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="30" t="s">
         <v>370</v>
       </c>
@@ -10141,7 +10144,7 @@
       </c>
       <c r="E19" s="31"/>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="30" t="s">
         <v>373</v>
       </c>
@@ -10154,7 +10157,7 @@
       <c r="D20" s="14"/>
       <c r="E20" s="31"/>
     </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="30" t="s">
         <v>375</v>
       </c>
@@ -10167,7 +10170,7 @@
       <c r="D21" s="14"/>
       <c r="E21" s="31"/>
     </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="30" t="s">
         <v>377</v>
       </c>
@@ -10182,7 +10185,7 @@
       </c>
       <c r="E22" s="31"/>
     </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="30" t="s">
         <v>380</v>
       </c>
@@ -10197,7 +10200,7 @@
       </c>
       <c r="E23" s="35"/>
     </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="30" t="s">
         <v>382</v>
       </c>
@@ -10212,7 +10215,7 @@
       </c>
       <c r="E24" s="31"/>
     </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="28" t="s">
         <v>386</v>
       </c>
@@ -10227,7 +10230,7 @@
       </c>
       <c r="E25" s="8"/>
     </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="28" t="s">
         <v>389</v>
       </c>
@@ -10242,7 +10245,7 @@
       </c>
       <c r="E26" s="29"/>
     </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="28" t="s">
         <v>392</v>
       </c>
@@ -10257,7 +10260,7 @@
       </c>
       <c r="E27" s="29"/>
     </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="28" t="s">
         <v>395</v>
       </c>
@@ -10272,7 +10275,7 @@
       </c>
       <c r="E28" s="29"/>
     </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="28" t="s">
         <v>398</v>
       </c>
@@ -10285,7 +10288,7 @@
       <c r="D29" s="6"/>
       <c r="E29" s="29"/>
     </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="28" t="s">
         <v>400</v>
       </c>
@@ -10298,7 +10301,7 @@
       <c r="D30" s="6"/>
       <c r="E30" s="29"/>
     </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="28" t="s">
         <v>402</v>
       </c>
@@ -10311,7 +10314,7 @@
       <c r="D31" s="6"/>
       <c r="E31" s="29"/>
     </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="28" t="s">
         <v>404</v>
       </c>
@@ -10324,7 +10327,7 @@
       <c r="D32" s="6"/>
       <c r="E32" s="29"/>
     </row>
-    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="28" t="s">
         <v>406</v>
       </c>
@@ -10337,7 +10340,7 @@
       <c r="D33" s="6"/>
       <c r="E33" s="29"/>
     </row>
-    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="28" t="s">
         <v>408</v>
       </c>
@@ -10352,7 +10355,7 @@
       </c>
       <c r="E34" s="29"/>
     </row>
-    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="28" t="s">
         <v>412</v>
       </c>
@@ -10367,7 +10370,7 @@
       </c>
       <c r="E35" s="29"/>
     </row>
-    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="28" t="s">
         <v>415</v>
       </c>
@@ -10384,7 +10387,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="28" t="s">
         <v>420</v>
       </c>
@@ -10397,7 +10400,7 @@
       <c r="D37" s="6"/>
       <c r="E37" s="29"/>
     </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="28" t="s">
         <v>422</v>
       </c>
@@ -10410,7 +10413,7 @@
       <c r="D38" s="6"/>
       <c r="E38" s="29"/>
     </row>
-    <row r="39" spans="1:5" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A39" s="28" t="s">
         <v>424</v>
       </c>
@@ -10427,7 +10430,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="28" t="s">
         <v>428</v>
       </c>
@@ -10440,7 +10443,7 @@
       <c r="D40" s="6"/>
       <c r="E40" s="29"/>
     </row>
-    <row r="41" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="28" t="s">
         <v>430</v>
       </c>
@@ -10453,7 +10456,7 @@
       <c r="D41" s="6"/>
       <c r="E41" s="29"/>
     </row>
-    <row r="42" spans="1:5" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A42" s="28" t="s">
         <v>432</v>
       </c>
@@ -10470,7 +10473,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="28" t="s">
         <v>434</v>
       </c>
@@ -10483,7 +10486,7 @@
       <c r="D43" s="6"/>
       <c r="E43" s="29"/>
     </row>
-    <row r="44" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="28" t="s">
         <v>436</v>
       </c>
@@ -10496,7 +10499,7 @@
       <c r="D44" s="6"/>
       <c r="E44" s="29"/>
     </row>
-    <row r="45" spans="1:5" ht="38.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A45" s="28" t="s">
         <v>438</v>
       </c>
@@ -10513,7 +10516,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="28" t="s">
         <v>441</v>
       </c>
@@ -10526,7 +10529,7 @@
       <c r="D46" s="6"/>
       <c r="E46" s="29"/>
     </row>
-    <row r="47" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="28" t="s">
         <v>443</v>
       </c>
@@ -10539,7 +10542,7 @@
       <c r="D47" s="6"/>
       <c r="E47" s="29"/>
     </row>
-    <row r="48" spans="1:5" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A48" s="28" t="s">
         <v>445</v>
       </c>
@@ -10556,7 +10559,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="28" t="s">
         <v>449</v>
       </c>
@@ -10571,7 +10574,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="28" t="s">
         <v>452</v>
       </c>
@@ -10586,7 +10589,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="28" t="s">
         <v>454</v>
       </c>
@@ -10603,7 +10606,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="28" t="s">
         <v>457</v>
       </c>
@@ -10620,7 +10623,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A53" s="28" t="s">
         <v>460</v>
       </c>
@@ -10637,7 +10640,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="28" t="s">
         <v>462</v>
       </c>
@@ -10650,7 +10653,7 @@
       <c r="D54" s="6"/>
       <c r="E54" s="29"/>
     </row>
-    <row r="55" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="28" t="s">
         <v>464</v>
       </c>
@@ -10663,7 +10666,7 @@
       <c r="D55" s="6"/>
       <c r="E55" s="29"/>
     </row>
-    <row r="56" spans="1:5" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A56" s="28" t="s">
         <v>466</v>
       </c>
@@ -10680,7 +10683,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="28" t="s">
         <v>469</v>
       </c>
@@ -10693,7 +10696,7 @@
       <c r="D57" s="6"/>
       <c r="E57" s="29"/>
     </row>
-    <row r="58" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="28" t="s">
         <v>471</v>
       </c>
@@ -10706,7 +10709,7 @@
       <c r="D58" s="6"/>
       <c r="E58" s="29"/>
     </row>
-    <row r="59" spans="1:5" ht="26" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A59" s="28" t="s">
         <v>473</v>
       </c>
@@ -10721,7 +10724,7 @@
       </c>
       <c r="E59" s="8"/>
     </row>
-    <row r="60" spans="1:5" ht="26" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A60" s="28" t="s">
         <v>475</v>
       </c>
@@ -10734,7 +10737,7 @@
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
     </row>
-    <row r="61" spans="1:5" ht="26" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A61" s="28" t="s">
         <v>477</v>
       </c>
@@ -10749,7 +10752,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="26" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A62" s="28" t="s">
         <v>479</v>
       </c>
@@ -10766,7 +10769,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="26" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A63" s="28" t="s">
         <v>481</v>
       </c>
@@ -10783,7 +10786,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A64" s="28" t="s">
         <v>483</v>
       </c>
@@ -10800,7 +10803,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="28" t="s">
         <v>487</v>
       </c>
@@ -10815,7 +10818,7 @@
       </c>
       <c r="E65" s="29"/>
     </row>
-    <row r="66" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="28" t="s">
         <v>490</v>
       </c>
@@ -10830,7 +10833,7 @@
       </c>
       <c r="E66" s="29"/>
     </row>
-    <row r="67" spans="1:5" ht="26" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A67" s="28" t="s">
         <v>492</v>
       </c>
@@ -10845,7 +10848,7 @@
       </c>
       <c r="E67" s="29"/>
     </row>
-    <row r="68" spans="1:5" ht="26" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A68" s="28" t="s">
         <v>494</v>
       </c>
@@ -10860,7 +10863,7 @@
       </c>
       <c r="E68" s="29"/>
     </row>
-    <row r="69" spans="1:5" ht="26" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A69" s="28" t="s">
         <v>496</v>
       </c>
@@ -10875,7 +10878,7 @@
       </c>
       <c r="E69" s="29"/>
     </row>
-    <row r="70" spans="1:5" ht="25" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A70" s="28" t="s">
         <v>498</v>
       </c>
@@ -10890,7 +10893,7 @@
       </c>
       <c r="E70" s="36"/>
     </row>
-    <row r="71" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="28" t="s">
         <v>502</v>
       </c>
@@ -10905,7 +10908,7 @@
       </c>
       <c r="E71" s="29"/>
     </row>
-    <row r="72" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="28" t="s">
         <v>506</v>
       </c>
@@ -10920,7 +10923,7 @@
       </c>
       <c r="E72" s="29"/>
     </row>
-    <row r="73" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="28" t="s">
         <v>510</v>
       </c>
@@ -10935,7 +10938,7 @@
       </c>
       <c r="E73" s="29"/>
     </row>
-    <row r="74" spans="1:5" ht="25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A74" s="28" t="s">
         <v>513</v>
       </c>
@@ -10950,7 +10953,7 @@
       </c>
       <c r="E74" s="36"/>
     </row>
-    <row r="75" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A75" s="28" t="s">
         <v>517</v>
       </c>
@@ -10967,7 +10970,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="30" t="s">
         <v>521</v>
       </c>
@@ -10982,7 +10985,7 @@
       </c>
       <c r="E76" s="31"/>
     </row>
-    <row r="77" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="30" t="s">
         <v>524</v>
       </c>
@@ -10997,7 +11000,7 @@
       </c>
       <c r="E77" s="31"/>
     </row>
-    <row r="78" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="30" t="s">
         <v>527</v>
       </c>
@@ -11012,7 +11015,7 @@
       </c>
       <c r="E78" s="31"/>
     </row>
-    <row r="79" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="30" t="s">
         <v>530</v>
       </c>
@@ -11027,7 +11030,7 @@
       </c>
       <c r="E79" s="31"/>
     </row>
-    <row r="80" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="30" t="s">
         <v>533</v>
       </c>
@@ -11042,7 +11045,7 @@
       </c>
       <c r="E80" s="31"/>
     </row>
-    <row r="81" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="30" t="s">
         <v>536</v>
       </c>
@@ -11057,7 +11060,7 @@
       </c>
       <c r="E81" s="31"/>
     </row>
-    <row r="82" spans="1:5" ht="26" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="28" t="s">
         <v>540</v>
       </c>
@@ -11070,7 +11073,7 @@
       <c r="D82" s="6"/>
       <c r="E82" s="29"/>
     </row>
-    <row r="83" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="28" t="s">
         <v>542</v>
       </c>
@@ -11085,7 +11088,7 @@
       </c>
       <c r="E83" s="29"/>
     </row>
-    <row r="84" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84" s="28" t="s">
         <v>545</v>
       </c>
@@ -11100,7 +11103,7 @@
       </c>
       <c r="E84" s="29"/>
     </row>
-    <row r="85" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85" s="28" t="s">
         <v>548</v>
       </c>
@@ -11115,7 +11118,7 @@
       </c>
       <c r="E85" s="29"/>
     </row>
-    <row r="86" spans="1:5" ht="50" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A86" s="28" t="s">
         <v>551</v>
       </c>
@@ -11130,7 +11133,7 @@
       </c>
       <c r="E86" s="29"/>
     </row>
-    <row r="87" spans="1:5" ht="87.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A87" s="28" t="s">
         <v>554</v>
       </c>
@@ -11145,7 +11148,7 @@
       </c>
       <c r="E87" s="29"/>
     </row>
-    <row r="88" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="28" t="s">
         <v>557</v>
       </c>
@@ -11160,7 +11163,7 @@
       </c>
       <c r="E88" s="8"/>
     </row>
-    <row r="89" spans="1:5" ht="25" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A89" s="28" t="s">
         <v>560</v>
       </c>
@@ -11177,7 +11180,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="28" t="s">
         <v>565</v>
       </c>
@@ -11190,7 +11193,7 @@
       </c>
       <c r="E90" s="8"/>
     </row>
-    <row r="91" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="28" t="s">
         <v>568</v>
       </c>
@@ -11203,7 +11206,7 @@
       </c>
       <c r="E91" s="8"/>
     </row>
-    <row r="92" spans="1:5" ht="26" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A92" s="28" t="s">
         <v>571</v>
       </c>
@@ -11216,7 +11219,7 @@
       </c>
       <c r="E92" s="8"/>
     </row>
-    <row r="93" spans="1:5" ht="26" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A93" s="28" t="s">
         <v>574</v>
       </c>
@@ -11229,7 +11232,7 @@
       </c>
       <c r="E93" s="8"/>
     </row>
-    <row r="94" spans="1:5" ht="26" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="28" t="s">
         <v>577</v>
       </c>
@@ -11242,7 +11245,7 @@
       </c>
       <c r="E94" s="8"/>
     </row>
-    <row r="95" spans="1:5" ht="26" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="28" t="s">
         <v>580</v>
       </c>
@@ -11255,7 +11258,7 @@
       </c>
       <c r="E95" s="8"/>
     </row>
-    <row r="96" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A96" s="28" t="s">
         <v>583</v>
       </c>
@@ -11270,7 +11273,7 @@
       </c>
       <c r="E96" s="8"/>
     </row>
-    <row r="97" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A97" s="28" t="s">
         <v>587</v>
       </c>
@@ -11285,7 +11288,7 @@
       </c>
       <c r="E97" s="8"/>
     </row>
-    <row r="98" spans="1:5" ht="50" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A98" s="28" t="s">
         <v>589</v>
       </c>
@@ -11302,7 +11305,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="25" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A99" s="28" t="s">
         <v>594</v>
       </c>
@@ -11319,7 +11322,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A100" s="28" t="s">
         <v>597</v>
       </c>
@@ -11334,7 +11337,7 @@
       </c>
       <c r="E100" s="8"/>
     </row>
-    <row r="101" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A101" s="28" t="s">
         <v>600</v>
       </c>
@@ -11349,7 +11352,7 @@
       </c>
       <c r="E101" s="8"/>
     </row>
-    <row r="102" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A102" s="28" t="s">
         <v>603</v>
       </c>
@@ -11362,7 +11365,7 @@
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
     </row>
-    <row r="103" spans="1:5" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A103" s="28" t="s">
         <v>605</v>
       </c>
@@ -11377,7 +11380,7 @@
       </c>
       <c r="E103" s="8"/>
     </row>
-    <row r="104" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A104" s="28" t="s">
         <v>608</v>
       </c>
@@ -11392,22 +11395,22 @@
       </c>
       <c r="E104" s="31"/>
     </row>
-    <row r="105" spans="1:5" ht="13" x14ac:dyDescent="0.25">
-      <c r="A105" s="83" t="s">
+    <row r="105" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A105" s="78" t="s">
         <v>1274</v>
       </c>
-      <c r="B105" s="84" t="s">
+      <c r="B105" s="79" t="s">
         <v>128</v>
       </c>
-      <c r="C105" s="85" t="s">
+      <c r="C105" s="80" t="s">
         <v>128</v>
       </c>
-      <c r="D105" s="84" t="s">
+      <c r="D105" s="79" t="s">
         <v>1275</v>
       </c>
       <c r="E105" s="31"/>
     </row>
-    <row r="106" spans="1:5" ht="50.5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A106" s="28" t="s">
         <v>611</v>
       </c>
@@ -11422,7 +11425,7 @@
       </c>
       <c r="E106" s="31"/>
     </row>
-    <row r="107" spans="1:5" ht="50" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A107" s="28" t="s">
         <v>614</v>
       </c>
@@ -11437,7 +11440,7 @@
       </c>
       <c r="E107" s="31"/>
     </row>
-    <row r="108" spans="1:5" ht="50" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A108" s="28" t="s">
         <v>617</v>
       </c>
@@ -11452,7 +11455,7 @@
       </c>
       <c r="E108" s="31"/>
     </row>
-    <row r="109" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A109" s="28" t="s">
         <v>620</v>
       </c>
@@ -11467,7 +11470,7 @@
       </c>
       <c r="E109" s="31"/>
     </row>
-    <row r="110" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A110" s="28" t="s">
         <v>624</v>
       </c>
@@ -11482,7 +11485,7 @@
       </c>
       <c r="E110" s="31"/>
     </row>
-    <row r="111" spans="1:5" ht="26" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A111" s="28" t="s">
         <v>627</v>
       </c>
@@ -11497,7 +11500,7 @@
       </c>
       <c r="E111" s="31"/>
     </row>
-    <row r="112" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A112" s="28" t="s">
         <v>630</v>
       </c>
@@ -11512,7 +11515,7 @@
       </c>
       <c r="E112" s="31"/>
     </row>
-    <row r="113" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A113" s="28" t="s">
         <v>633</v>
       </c>
@@ -11527,7 +11530,7 @@
       </c>
       <c r="E113" s="31"/>
     </row>
-    <row r="114" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A114" s="28" t="s">
         <v>636</v>
       </c>
@@ -11542,7 +11545,7 @@
       </c>
       <c r="E114" s="31"/>
     </row>
-    <row r="115" spans="1:5" ht="26" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A115" s="28" t="s">
         <v>639</v>
       </c>
@@ -11557,7 +11560,7 @@
       </c>
       <c r="E115" s="31"/>
     </row>
-    <row r="116" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A116" s="28" t="s">
         <v>642</v>
       </c>
@@ -11572,7 +11575,7 @@
       </c>
       <c r="E116" s="31"/>
     </row>
-    <row r="117" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A117" s="28" t="s">
         <v>645</v>
       </c>
@@ -11587,7 +11590,7 @@
       </c>
       <c r="E117" s="31"/>
     </row>
-    <row r="118" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A118" s="28" t="s">
         <v>648</v>
       </c>
@@ -11602,7 +11605,7 @@
       </c>
       <c r="E118" s="31"/>
     </row>
-    <row r="119" spans="1:5" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A119" s="28" t="s">
         <v>651</v>
       </c>
@@ -11617,7 +11620,7 @@
       </c>
       <c r="E119" s="31"/>
     </row>
-    <row r="120" spans="1:5" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A120" s="28" t="s">
         <v>654</v>
       </c>
@@ -11632,7 +11635,7 @@
       </c>
       <c r="E120" s="31"/>
     </row>
-    <row r="121" spans="1:5" ht="50" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A121" s="28" t="s">
         <v>656</v>
       </c>
@@ -11647,7 +11650,7 @@
       </c>
       <c r="E121" s="31"/>
     </row>
-    <row r="122" spans="1:5" ht="50" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A122" s="28" t="s">
         <v>659</v>
       </c>
@@ -11662,7 +11665,7 @@
       </c>
       <c r="E122" s="31"/>
     </row>
-    <row r="123" spans="1:5" ht="50" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A123" s="28" t="s">
         <v>662</v>
       </c>
@@ -11677,7 +11680,7 @@
       </c>
       <c r="E123" s="31"/>
     </row>
-    <row r="124" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A124" s="28" t="s">
         <v>665</v>
       </c>
@@ -11692,7 +11695,7 @@
       </c>
       <c r="E124" s="37"/>
     </row>
-    <row r="125" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A125" s="30" t="s">
         <v>669</v>
       </c>
@@ -11705,7 +11708,7 @@
       <c r="D125" s="32"/>
       <c r="E125" s="38"/>
     </row>
-    <row r="126" spans="1:5" ht="38" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A126" s="30" t="s">
         <v>671</v>
       </c>
@@ -11720,7 +11723,7 @@
       </c>
       <c r="E126" s="37"/>
     </row>
-    <row r="127" spans="1:5" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A127" s="30" t="s">
         <v>675</v>
       </c>
@@ -11735,7 +11738,7 @@
       </c>
       <c r="E127" s="37"/>
     </row>
-    <row r="128" spans="1:5" ht="50" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A128" s="30" t="s">
         <v>678</v>
       </c>
@@ -11750,7 +11753,7 @@
       </c>
       <c r="E128" s="31"/>
     </row>
-    <row r="129" spans="1:5" ht="38" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A129" s="28" t="s">
         <v>681</v>
       </c>
@@ -11765,7 +11768,7 @@
       </c>
       <c r="E129" s="31"/>
     </row>
-    <row r="130" spans="1:5" ht="75.5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A130" s="28" t="s">
         <v>684</v>
       </c>
@@ -11780,7 +11783,7 @@
       </c>
       <c r="E130" s="31"/>
     </row>
-    <row r="131" spans="1:5" ht="38" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A131" s="28" t="s">
         <v>688</v>
       </c>
@@ -11795,7 +11798,7 @@
       </c>
       <c r="E131" s="31"/>
     </row>
-    <row r="132" spans="1:5" ht="50.5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A132" s="28" t="s">
         <v>1276</v>
       </c>
@@ -11810,7 +11813,7 @@
       </c>
       <c r="E132" s="31"/>
     </row>
-    <row r="133" spans="1:5" ht="62.5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A133" s="28" t="s">
         <v>690</v>
       </c>
@@ -11825,7 +11828,7 @@
       </c>
       <c r="E133" s="31"/>
     </row>
-    <row r="134" spans="1:5" ht="50" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A134" s="28" t="s">
         <v>694</v>
       </c>
@@ -11840,7 +11843,7 @@
       </c>
       <c r="E134" s="31"/>
     </row>
-    <row r="135" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A135" s="28" t="s">
         <v>697</v>
       </c>
@@ -11855,7 +11858,7 @@
       </c>
       <c r="E135" s="31"/>
     </row>
-    <row r="136" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A136" s="28" t="s">
         <v>700</v>
       </c>
@@ -11870,7 +11873,7 @@
       </c>
       <c r="E136" s="31"/>
     </row>
-    <row r="137" spans="1:5" ht="25" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A137" s="28" t="s">
         <v>704</v>
       </c>
@@ -11885,7 +11888,7 @@
       </c>
       <c r="E137" s="37"/>
     </row>
-    <row r="138" spans="1:5" ht="25" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A138" s="28" t="s">
         <v>707</v>
       </c>
@@ -11900,7 +11903,7 @@
       </c>
       <c r="E138" s="31"/>
     </row>
-    <row r="139" spans="1:5" ht="25" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A139" s="28" t="s">
         <v>710</v>
       </c>
@@ -11915,7 +11918,7 @@
       </c>
       <c r="E139" s="31"/>
     </row>
-    <row r="140" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A140" s="28" t="s">
         <v>713</v>
       </c>
@@ -11932,22 +11935,22 @@
         <v>716</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="13" x14ac:dyDescent="0.25">
-      <c r="A141" s="83" t="s">
+    <row r="141" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A141" s="78" t="s">
         <v>1280</v>
       </c>
-      <c r="B141" s="84" t="s">
+      <c r="B141" s="79" t="s">
         <v>128</v>
       </c>
-      <c r="C141" s="85" t="s">
+      <c r="C141" s="80" t="s">
         <v>1281</v>
       </c>
-      <c r="D141" s="84" t="s">
+      <c r="D141" s="79" t="s">
         <v>1282</v>
       </c>
       <c r="E141" s="31"/>
     </row>
-    <row r="142" spans="1:5" ht="25" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A142" s="28" t="s">
         <v>717</v>
       </c>
@@ -11962,7 +11965,7 @@
       </c>
       <c r="E142" s="31"/>
     </row>
-    <row r="143" spans="1:5" ht="25" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A143" s="28" t="s">
         <v>720</v>
       </c>
@@ -11977,7 +11980,7 @@
       </c>
       <c r="E143" s="31"/>
     </row>
-    <row r="144" spans="1:5" ht="25" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A144" s="28" t="s">
         <v>723</v>
       </c>
@@ -11992,7 +11995,7 @@
       </c>
       <c r="E144" s="31"/>
     </row>
-    <row r="145" spans="1:5" ht="25" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A145" s="28" t="s">
         <v>726</v>
       </c>
@@ -12007,7 +12010,7 @@
       </c>
       <c r="E145" s="31"/>
     </row>
-    <row r="146" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A146" s="28" t="s">
         <v>729</v>
       </c>
@@ -12024,7 +12027,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A147" s="28" t="s">
         <v>733</v>
       </c>
@@ -12039,7 +12042,7 @@
       </c>
       <c r="E147" s="31"/>
     </row>
-    <row r="148" spans="1:5" ht="50" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A148" s="28" t="s">
         <v>736</v>
       </c>
@@ -12054,7 +12057,7 @@
       </c>
       <c r="E148" s="31"/>
     </row>
-    <row r="149" spans="1:5" ht="62.5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A149" s="28" t="s">
         <v>740</v>
       </c>
@@ -12069,7 +12072,7 @@
       </c>
       <c r="E149" s="31"/>
     </row>
-    <row r="150" spans="1:5" ht="87.5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A150" s="28" t="s">
         <v>743</v>
       </c>
@@ -12084,7 +12087,7 @@
       </c>
       <c r="E150" s="31"/>
     </row>
-    <row r="151" spans="1:5" ht="25" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A151" s="28" t="s">
         <v>746</v>
       </c>
@@ -12099,7 +12102,7 @@
       </c>
       <c r="E151" s="31"/>
     </row>
-    <row r="152" spans="1:5" ht="25" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A152" s="28" t="s">
         <v>749</v>
       </c>
@@ -12114,7 +12117,7 @@
       </c>
       <c r="E152" s="31"/>
     </row>
-    <row r="153" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A153" s="30" t="s">
         <v>752</v>
       </c>
@@ -12129,7 +12132,7 @@
       </c>
       <c r="E153" s="31"/>
     </row>
-    <row r="154" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A154" s="30" t="s">
         <v>756</v>
       </c>
@@ -12144,7 +12147,7 @@
       </c>
       <c r="E154" s="31"/>
     </row>
-    <row r="155" spans="1:5" ht="76" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A155" s="30" t="s">
         <v>759</v>
       </c>
@@ -12159,7 +12162,7 @@
       </c>
       <c r="E155" s="31"/>
     </row>
-    <row r="156" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A156" s="30" t="s">
         <v>763</v>
       </c>
@@ -12174,7 +12177,7 @@
       </c>
       <c r="E156" s="31"/>
     </row>
-    <row r="157" spans="1:5" ht="62.5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A157" s="28" t="s">
         <v>766</v>
       </c>
@@ -12189,7 +12192,7 @@
       </c>
       <c r="E157" s="29"/>
     </row>
-    <row r="158" spans="1:5" ht="26" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A158" s="28" t="s">
         <v>770</v>
       </c>
@@ -12204,7 +12207,7 @@
       </c>
       <c r="E158" s="29"/>
     </row>
-    <row r="159" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A159" s="28" t="s">
         <v>773</v>
       </c>
@@ -12219,7 +12222,7 @@
       </c>
       <c r="E159" s="29"/>
     </row>
-    <row r="160" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A160" s="28" t="s">
         <v>776</v>
       </c>
@@ -12234,7 +12237,7 @@
       </c>
       <c r="E160" s="40"/>
     </row>
-    <row r="161" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A161" s="28" t="s">
         <v>780</v>
       </c>
@@ -12249,7 +12252,7 @@
       </c>
       <c r="E161" s="40"/>
     </row>
-    <row r="162" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A162" s="28" t="s">
         <v>783</v>
       </c>
@@ -12264,7 +12267,7 @@
       </c>
       <c r="E162" s="40"/>
     </row>
-    <row r="163" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A163" s="28" t="s">
         <v>787</v>
       </c>
@@ -12277,7 +12280,7 @@
       <c r="D163" s="6"/>
       <c r="E163" s="40"/>
     </row>
-    <row r="164" spans="1:5" ht="62.5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A164" s="41" t="s">
         <v>789</v>
       </c>
@@ -12292,7 +12295,7 @@
       </c>
       <c r="E164" s="40"/>
     </row>
-    <row r="165" spans="1:5" ht="25.5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A165" s="41" t="s">
         <v>792</v>
       </c>
@@ -12309,7 +12312,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="25" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A166" s="41" t="s">
         <v>796</v>
       </c>
@@ -12324,7 +12327,7 @@
       </c>
       <c r="E166" s="40"/>
     </row>
-    <row r="167" spans="1:5" ht="25" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A167" s="41" t="s">
         <v>799</v>
       </c>
@@ -12337,7 +12340,7 @@
       <c r="D167" s="25"/>
       <c r="E167" s="40"/>
     </row>
-    <row r="168" spans="1:5" ht="50" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A168" s="41" t="s">
         <v>800</v>
       </c>
@@ -12352,7 +12355,7 @@
       </c>
       <c r="E168" s="40"/>
     </row>
-    <row r="169" spans="1:5" ht="62.5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A169" s="41" t="s">
         <v>803</v>
       </c>
@@ -12367,7 +12370,7 @@
       </c>
       <c r="E169" s="43"/>
     </row>
-    <row r="170" spans="1:5" ht="88" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A170" s="41" t="s">
         <v>807</v>
       </c>
@@ -12382,7 +12385,7 @@
       </c>
       <c r="E170" s="43"/>
     </row>
-    <row r="171" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A171" s="44" t="s">
         <v>810</v>
       </c>
@@ -12397,7 +12400,7 @@
       </c>
       <c r="E171" s="40"/>
     </row>
-    <row r="172" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A172" s="44" t="s">
         <v>813</v>
       </c>
@@ -12412,7 +12415,7 @@
       </c>
       <c r="E172" s="40"/>
     </row>
-    <row r="173" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A173" s="28" t="s">
         <v>816</v>
       </c>
@@ -12427,7 +12430,7 @@
       </c>
       <c r="E173" s="29"/>
     </row>
-    <row r="174" spans="1:5" ht="62.5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A174" s="28" t="s">
         <v>819</v>
       </c>
@@ -12442,7 +12445,7 @@
       </c>
       <c r="E174" s="29"/>
     </row>
-    <row r="175" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A175" s="28" t="s">
         <v>821</v>
       </c>
@@ -12455,7 +12458,7 @@
       <c r="D175" s="6"/>
       <c r="E175" s="29"/>
     </row>
-    <row r="176" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A176" s="28" t="s">
         <v>823</v>
       </c>
@@ -12472,7 +12475,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A177" s="28" t="s">
         <v>827</v>
       </c>
@@ -12489,7 +12492,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A178" s="28" t="s">
         <v>831</v>
       </c>
@@ -12504,7 +12507,7 @@
       </c>
       <c r="E178" s="29"/>
     </row>
-    <row r="179" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A179" s="28" t="s">
         <v>834</v>
       </c>
@@ -12519,7 +12522,7 @@
       </c>
       <c r="E179" s="29"/>
     </row>
-    <row r="180" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A180" s="28" t="s">
         <v>837</v>
       </c>
@@ -12534,7 +12537,7 @@
       </c>
       <c r="E180" s="29"/>
     </row>
-    <row r="181" spans="1:5" ht="25" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A181" s="28" t="s">
         <v>840</v>
       </c>
@@ -12549,7 +12552,7 @@
       </c>
       <c r="E181" s="29"/>
     </row>
-    <row r="182" spans="1:5" ht="25" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A182" s="28" t="s">
         <v>843</v>
       </c>
@@ -12564,7 +12567,7 @@
       </c>
       <c r="E182" s="29"/>
     </row>
-    <row r="183" spans="1:5" ht="50" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A183" s="28" t="s">
         <v>846</v>
       </c>
@@ -12579,7 +12582,7 @@
       </c>
       <c r="E183" s="29"/>
     </row>
-    <row r="184" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A184" s="28" t="s">
         <v>850</v>
       </c>
@@ -12594,7 +12597,7 @@
       </c>
       <c r="E184" s="29"/>
     </row>
-    <row r="185" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A185" s="28" t="s">
         <v>853</v>
       </c>
@@ -12609,7 +12612,7 @@
       </c>
       <c r="E185" s="29"/>
     </row>
-    <row r="186" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A186" s="28" t="s">
         <v>856</v>
       </c>
@@ -12624,7 +12627,7 @@
       </c>
       <c r="E186" s="29"/>
     </row>
-    <row r="187" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A187" s="28" t="s">
         <v>859</v>
       </c>
@@ -12637,7 +12640,7 @@
       <c r="D187" s="6"/>
       <c r="E187" s="29"/>
     </row>
-    <row r="188" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A188" s="28" t="s">
         <v>862</v>
       </c>
@@ -12650,7 +12653,7 @@
       <c r="D188" s="6"/>
       <c r="E188" s="29"/>
     </row>
-    <row r="189" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A189" s="28" t="s">
         <v>864</v>
       </c>
@@ -12663,7 +12666,7 @@
       <c r="D189" s="6"/>
       <c r="E189" s="29"/>
     </row>
-    <row r="190" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A190" s="28" t="s">
         <v>866</v>
       </c>
@@ -12678,7 +12681,7 @@
       </c>
       <c r="E190" s="36"/>
     </row>
-    <row r="191" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A191" s="28" t="s">
         <v>869</v>
       </c>
@@ -12693,7 +12696,7 @@
       </c>
       <c r="E191" s="36"/>
     </row>
-    <row r="192" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A192" s="28" t="s">
         <v>871</v>
       </c>
@@ -12706,7 +12709,7 @@
       <c r="D192" s="6"/>
       <c r="E192" s="29"/>
     </row>
-    <row r="193" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A193" s="28" t="s">
         <v>873</v>
       </c>
@@ -12721,7 +12724,7 @@
       </c>
       <c r="E193" s="36"/>
     </row>
-    <row r="194" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A194" s="28" t="s">
         <v>875</v>
       </c>
@@ -12734,7 +12737,7 @@
       <c r="D194" s="6"/>
       <c r="E194" s="29"/>
     </row>
-    <row r="195" spans="1:5" ht="100" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A195" s="28" t="s">
         <v>876</v>
       </c>
@@ -12749,7 +12752,7 @@
       </c>
       <c r="E195" s="29"/>
     </row>
-    <row r="196" spans="1:5" ht="75.5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A196" s="28" t="s">
         <v>880</v>
       </c>
@@ -12764,7 +12767,7 @@
       </c>
       <c r="E196" s="29"/>
     </row>
-    <row r="197" spans="1:5" ht="87.5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A197" s="28" t="s">
         <v>883</v>
       </c>
@@ -12779,7 +12782,7 @@
       </c>
       <c r="E197" s="29"/>
     </row>
-    <row r="198" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A198" s="28" t="s">
         <v>886</v>
       </c>
@@ -12794,7 +12797,7 @@
       </c>
       <c r="E198" s="29"/>
     </row>
-    <row r="199" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A199" s="28" t="s">
         <v>889</v>
       </c>
@@ -12809,7 +12812,7 @@
       </c>
       <c r="E199" s="29"/>
     </row>
-    <row r="200" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A200" s="28" t="s">
         <v>892</v>
       </c>
@@ -12824,7 +12827,7 @@
       </c>
       <c r="E200" s="29"/>
     </row>
-    <row r="201" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A201" s="28" t="s">
         <v>895</v>
       </c>
@@ -12839,7 +12842,7 @@
       </c>
       <c r="E201" s="29"/>
     </row>
-    <row r="202" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A202" s="28" t="s">
         <v>899</v>
       </c>
@@ -12854,7 +12857,7 @@
       </c>
       <c r="E202" s="29"/>
     </row>
-    <row r="203" spans="1:5" ht="50" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A203" s="28" t="s">
         <v>902</v>
       </c>
@@ -12869,7 +12872,7 @@
       </c>
       <c r="E203" s="29"/>
     </row>
-    <row r="204" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A204" s="28" t="s">
         <v>905</v>
       </c>
@@ -12884,7 +12887,7 @@
       </c>
       <c r="E204" s="29"/>
     </row>
-    <row r="205" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A205" s="28" t="s">
         <v>906</v>
       </c>
@@ -12899,7 +12902,7 @@
       </c>
       <c r="E205" s="29"/>
     </row>
-    <row r="206" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A206" s="28" t="s">
         <v>907</v>
       </c>
@@ -12914,7 +12917,7 @@
       </c>
       <c r="E206" s="29"/>
     </row>
-    <row r="207" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A207" s="28" t="s">
         <v>909</v>
       </c>
@@ -12929,7 +12932,7 @@
       </c>
       <c r="E207" s="29"/>
     </row>
-    <row r="208" spans="1:5" ht="88.5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A208" s="28" t="s">
         <v>910</v>
       </c>
@@ -12944,7 +12947,7 @@
       </c>
       <c r="E208" s="29"/>
     </row>
-    <row r="209" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A209" s="30" t="s">
         <v>913</v>
       </c>
@@ -12957,21 +12960,21 @@
       <c r="D209" s="16"/>
       <c r="E209" s="46"/>
     </row>
-    <row r="210" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A210" s="30"/>
       <c r="B210" s="16"/>
       <c r="C210" s="17"/>
       <c r="D210" s="16"/>
       <c r="E210" s="46"/>
     </row>
-    <row r="211" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A211" s="30"/>
       <c r="B211" s="16"/>
       <c r="C211" s="17"/>
       <c r="D211" s="16"/>
       <c r="E211" s="46"/>
     </row>
-    <row r="212" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A212" s="30"/>
       <c r="B212" s="16"/>
       <c r="C212" s="17"/>
@@ -12996,14 +12999,14 @@
       <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.81640625" customWidth="1"/>
+    <col min="1" max="1" width="29.85546875" customWidth="1"/>
     <col min="2" max="2" width="34" customWidth="1"/>
-    <col min="3" max="3" width="30.81640625" customWidth="1"/>
+    <col min="3" max="3" width="30.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
         <v>915</v>
       </c>
@@ -13014,14 +13017,14 @@
         <v>325</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A2" s="78" t="s">
+    <row r="2" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="81" t="s">
         <v>917</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-    </row>
-    <row r="3" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+    </row>
+    <row r="3" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -13032,7 +13035,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
         <v>16</v>
       </c>
@@ -13043,7 +13046,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
         <v>16</v>
       </c>
@@ -13054,7 +13057,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>16</v>
       </c>
@@ -13065,7 +13068,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>16</v>
       </c>
@@ -13076,32 +13079,32 @@
         <v>921</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
     </row>
-    <row r="9" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
     </row>
-    <row r="10" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="14"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
     </row>
-    <row r="11" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
     </row>
-    <row r="12" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="14"/>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
     </row>
-    <row r="13" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="14"/>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
@@ -13122,19 +13125,19 @@
   </sheetPr>
   <dimension ref="A1:C147"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.7265625" customWidth="1"/>
-    <col min="2" max="2" width="33.453125" customWidth="1"/>
-    <col min="3" max="3" width="84.1796875" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" customWidth="1"/>
+    <col min="3" max="3" width="84.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
         <v>922</v>
       </c>
@@ -13145,14 +13148,14 @@
         <v>324</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A2" s="78" t="s">
+    <row r="2" spans="1:3" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="86" t="s">
         <v>924</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-    </row>
-    <row r="3" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+    </row>
+    <row r="3" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="14">
         <v>0</v>
       </c>
@@ -13164,7 +13167,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="48">
         <v>128</v>
       </c>
@@ -13176,7 +13179,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
         <v>150</v>
       </c>
@@ -13188,7 +13191,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="34">
         <v>151</v>
       </c>
@@ -13198,7 +13201,7 @@
       </c>
       <c r="C6" s="35"/>
     </row>
-    <row r="7" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="34">
         <v>152</v>
       </c>
@@ -13208,7 +13211,7 @@
       </c>
       <c r="C7" s="35"/>
     </row>
-    <row r="8" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>153</v>
       </c>
@@ -13220,7 +13223,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="34">
         <v>169</v>
       </c>
@@ -13230,7 +13233,7 @@
       </c>
       <c r="C9" s="35"/>
     </row>
-    <row r="10" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="34">
         <v>171</v>
       </c>
@@ -13240,7 +13243,7 @@
       </c>
       <c r="C10" s="35"/>
     </row>
-    <row r="11" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="34">
         <v>172</v>
       </c>
@@ -13250,7 +13253,7 @@
       </c>
       <c r="C11" s="35"/>
     </row>
-    <row r="12" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="34">
         <v>173</v>
       </c>
@@ -13260,7 +13263,7 @@
       </c>
       <c r="C12" s="35"/>
     </row>
-    <row r="13" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="48">
         <v>256</v>
       </c>
@@ -13272,7 +13275,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="34">
         <v>276</v>
       </c>
@@ -13282,7 +13285,7 @@
       </c>
       <c r="C14" s="35"/>
     </row>
-    <row r="15" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="34">
         <v>277</v>
       </c>
@@ -13292,7 +13295,7 @@
       </c>
       <c r="C15" s="35"/>
     </row>
-    <row r="16" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="34">
         <v>333</v>
       </c>
@@ -13302,7 +13305,7 @@
       </c>
       <c r="C16" s="35"/>
     </row>
-    <row r="17" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="34">
         <v>339</v>
       </c>
@@ -13312,7 +13315,7 @@
       </c>
       <c r="C17" s="35"/>
     </row>
-    <row r="18" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="14">
         <v>386</v>
       </c>
@@ -13324,7 +13327,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="34">
         <v>387</v>
       </c>
@@ -13334,7 +13337,7 @@
       </c>
       <c r="C19" s="35"/>
     </row>
-    <row r="20" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="34">
         <v>388</v>
       </c>
@@ -13344,7 +13347,7 @@
       </c>
       <c r="C20" s="35"/>
     </row>
-    <row r="21" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="34">
         <v>389</v>
       </c>
@@ -13354,7 +13357,7 @@
       </c>
       <c r="C21" s="35"/>
     </row>
-    <row r="22" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="34">
         <v>390</v>
       </c>
@@ -13364,7 +13367,7 @@
       </c>
       <c r="C22" s="35"/>
     </row>
-    <row r="23" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="14">
         <v>527</v>
       </c>
@@ -13376,7 +13379,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="34">
         <v>528</v>
       </c>
@@ -13386,7 +13389,7 @@
       </c>
       <c r="C24" s="35"/>
     </row>
-    <row r="25" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="34">
         <v>532</v>
       </c>
@@ -13396,7 +13399,7 @@
       </c>
       <c r="C25" s="35"/>
     </row>
-    <row r="26" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="14">
         <v>537</v>
       </c>
@@ -13408,7 +13411,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="34">
         <v>1024</v>
       </c>
@@ -13420,7 +13423,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="14">
         <v>1025</v>
       </c>
@@ -13432,7 +13435,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="14">
         <v>1026</v>
       </c>
@@ -13444,7 +13447,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="34">
         <v>1029</v>
       </c>
@@ -13454,7 +13457,7 @@
       </c>
       <c r="C30" s="35"/>
     </row>
-    <row r="31" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="34">
         <v>1044</v>
       </c>
@@ -13466,7 +13469,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="34">
         <v>1063</v>
       </c>
@@ -13478,7 +13481,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="34">
         <v>1152</v>
       </c>
@@ -13490,7 +13493,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="34">
         <v>1153</v>
       </c>
@@ -13502,7 +13505,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="34">
         <v>1174</v>
       </c>
@@ -13514,7 +13517,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="34">
         <v>1175</v>
       </c>
@@ -13526,7 +13529,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="34">
         <v>1177</v>
       </c>
@@ -13538,7 +13541,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="34">
         <v>1195</v>
       </c>
@@ -13550,7 +13553,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="34">
         <v>1197</v>
       </c>
@@ -13562,7 +13565,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="34">
         <v>1280</v>
       </c>
@@ -13574,7 +13577,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="34">
         <v>1300</v>
       </c>
@@ -13586,7 +13589,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="14">
         <v>1363</v>
       </c>
@@ -13598,7 +13601,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="34">
         <v>1551</v>
       </c>
@@ -13610,7 +13613,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="34">
         <v>1556</v>
       </c>
@@ -13622,7 +13625,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="34">
         <v>1557</v>
       </c>
@@ -13634,7 +13637,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="34">
         <v>1561</v>
       </c>
@@ -13646,7 +13649,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="34">
         <v>2049</v>
       </c>
@@ -13658,7 +13661,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="48">
         <v>2176</v>
       </c>
@@ -13670,7 +13673,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="34">
         <v>2199</v>
       </c>
@@ -13682,7 +13685,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="34">
         <v>2219</v>
       </c>
@@ -13694,7 +13697,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="34">
         <v>2221</v>
       </c>
@@ -13706,7 +13709,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="48">
         <v>2304</v>
       </c>
@@ -13718,7 +13721,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="34">
         <v>2324</v>
       </c>
@@ -13730,7 +13733,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="14">
         <v>2434</v>
       </c>
@@ -13742,7 +13745,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="14">
         <v>2437</v>
       </c>
@@ -13754,7 +13757,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="34">
         <v>2580</v>
       </c>
@@ -13766,7 +13769,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="34">
         <v>2585</v>
       </c>
@@ -13778,7 +13781,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="14">
         <v>4224</v>
       </c>
@@ -13790,7 +13793,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="14">
         <v>6876</v>
       </c>
@@ -13802,7 +13805,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="34">
         <v>9119</v>
       </c>
@@ -13812,7 +13815,7 @@
       </c>
       <c r="C60" s="35"/>
     </row>
-    <row r="61" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="14">
         <v>10240</v>
       </c>
@@ -13824,7 +13827,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="34">
         <v>12282</v>
       </c>
@@ -13834,7 +13837,7 @@
       </c>
       <c r="C62" s="35"/>
     </row>
-    <row r="63" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="34">
         <v>13312</v>
       </c>
@@ -13844,7 +13847,7 @@
       </c>
       <c r="C63" s="35"/>
     </row>
-    <row r="64" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="34">
         <v>14464</v>
       </c>
@@ -13854,7 +13857,7 @@
       </c>
       <c r="C64" s="35"/>
     </row>
-    <row r="65" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="14">
         <v>16383</v>
       </c>
@@ -13866,7 +13869,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="34">
         <v>16512</v>
       </c>
@@ -13876,7 +13879,7 @@
       </c>
       <c r="C66" s="35"/>
     </row>
-    <row r="67" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="34">
         <v>16514</v>
       </c>
@@ -13886,7 +13889,7 @@
       </c>
       <c r="C67" s="35"/>
     </row>
-    <row r="68" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="34">
         <v>16534</v>
       </c>
@@ -13896,7 +13899,7 @@
       </c>
       <c r="C68" s="35"/>
     </row>
-    <row r="69" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="34">
         <v>16535</v>
       </c>
@@ -13906,7 +13909,7 @@
       </c>
       <c r="C69" s="35"/>
     </row>
-    <row r="70" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="34">
         <v>16640</v>
       </c>
@@ -13916,7 +13919,7 @@
       </c>
       <c r="C70" s="35"/>
     </row>
-    <row r="71" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="34">
         <v>16661</v>
       </c>
@@ -13926,7 +13929,7 @@
       </c>
       <c r="C71" s="35"/>
     </row>
-    <row r="72" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="34">
         <v>16770</v>
       </c>
@@ -13936,7 +13939,7 @@
       </c>
       <c r="C72" s="35"/>
     </row>
-    <row r="73" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="34">
         <v>16773</v>
       </c>
@@ -13946,7 +13949,7 @@
       </c>
       <c r="C73" s="35"/>
     </row>
-    <row r="74" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="34">
         <v>16832</v>
       </c>
@@ -13956,7 +13959,7 @@
       </c>
       <c r="C74" s="35"/>
     </row>
-    <row r="75" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="34">
         <v>16916</v>
       </c>
@@ -13966,7 +13969,7 @@
       </c>
       <c r="C75" s="35"/>
     </row>
-    <row r="76" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="34">
         <v>16921</v>
       </c>
@@ -13976,7 +13979,7 @@
       </c>
       <c r="C76" s="35"/>
     </row>
-    <row r="77" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="34">
         <v>17409</v>
       </c>
@@ -13986,7 +13989,7 @@
       </c>
       <c r="C77" s="35"/>
     </row>
-    <row r="78" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="34">
         <v>17410</v>
       </c>
@@ -13996,7 +13999,7 @@
       </c>
       <c r="C78" s="35"/>
     </row>
-    <row r="79" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="34">
         <v>17536</v>
       </c>
@@ -14006,7 +14009,7 @@
       </c>
       <c r="C79" s="35"/>
     </row>
-    <row r="80" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="34">
         <v>17558</v>
       </c>
@@ -14016,7 +14019,7 @@
       </c>
       <c r="C80" s="35"/>
     </row>
-    <row r="81" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="34">
         <v>17945</v>
       </c>
@@ -14026,7 +14029,7 @@
       </c>
       <c r="C81" s="35"/>
     </row>
-    <row r="82" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="34">
         <v>18560</v>
       </c>
@@ -14036,7 +14039,7 @@
       </c>
       <c r="C82" s="35"/>
     </row>
-    <row r="83" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="34">
         <v>18708</v>
       </c>
@@ -14046,7 +14049,7 @@
       </c>
       <c r="C83" s="35"/>
     </row>
-    <row r="84" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84" s="34">
         <v>18818</v>
       </c>
@@ -14056,7 +14059,7 @@
       </c>
       <c r="C84" s="35"/>
     </row>
-    <row r="85" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85" s="34">
         <v>18969</v>
       </c>
@@ -14066,7 +14069,7 @@
       </c>
       <c r="C85" s="35"/>
     </row>
-    <row r="86" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86" s="14">
         <v>23260</v>
       </c>
@@ -14078,7 +14081,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A87" s="14">
         <v>32896</v>
       </c>
@@ -14090,7 +14093,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="34">
         <v>32918</v>
       </c>
@@ -14102,7 +14105,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A89" s="14">
         <v>32921</v>
       </c>
@@ -14114,7 +14117,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="34">
         <v>33044</v>
       </c>
@@ -14124,7 +14127,7 @@
       </c>
       <c r="C90" s="35"/>
     </row>
-    <row r="91" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="34">
         <v>33107</v>
       </c>
@@ -14136,7 +14139,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A92" s="34">
         <v>33154</v>
       </c>
@@ -14148,7 +14151,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A93" s="34">
         <v>33157</v>
       </c>
@@ -14160,7 +14163,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="34">
         <v>33300</v>
       </c>
@@ -14172,7 +14175,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="34">
         <v>33305</v>
       </c>
@@ -14184,7 +14187,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A96" s="34">
         <v>33793</v>
       </c>
@@ -14196,7 +14199,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A97" s="34">
         <v>33794</v>
       </c>
@@ -14208,7 +14211,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A98" s="14">
         <v>33921</v>
       </c>
@@ -14220,7 +14223,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" s="34">
         <v>33943</v>
       </c>
@@ -14232,7 +14235,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A100" s="34">
         <v>34319</v>
       </c>
@@ -14244,7 +14247,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A101" s="34">
         <v>34329</v>
       </c>
@@ -14256,7 +14259,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A102" s="14">
         <v>39644</v>
       </c>
@@ -14268,7 +14271,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A103" s="34">
         <v>49280</v>
       </c>
@@ -14280,7 +14283,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A104" s="34">
         <v>49302</v>
       </c>
@@ -14292,7 +14295,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A105" s="34">
         <v>49538</v>
       </c>
@@ -14304,7 +14307,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A106" s="34">
         <v>49541</v>
       </c>
@@ -14316,7 +14319,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A107" s="34">
         <v>49689</v>
       </c>
@@ -14328,7 +14331,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A108" s="34">
         <v>50177</v>
       </c>
@@ -14340,7 +14343,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A109" s="14">
         <v>56028</v>
       </c>
@@ -14352,7 +14355,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A110" s="34">
         <v>67584</v>
       </c>
@@ -14364,7 +14367,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A111" s="34">
         <v>67840</v>
       </c>
@@ -14376,7 +14379,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A112" s="34">
         <v>131604</v>
       </c>
@@ -14386,7 +14389,7 @@
       </c>
       <c r="C112" s="35"/>
     </row>
-    <row r="113" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A113" s="34">
         <v>132097</v>
       </c>
@@ -14396,7 +14399,7 @@
       </c>
       <c r="C113" s="35"/>
     </row>
-    <row r="114" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A114" s="34">
         <v>262272</v>
       </c>
@@ -14406,7 +14409,7 @@
       </c>
       <c r="C114" s="35"/>
     </row>
-    <row r="115" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A115" s="34">
         <v>262533</v>
       </c>
@@ -14416,7 +14419,7 @@
       </c>
       <c r="C115" s="35"/>
     </row>
-    <row r="116" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A116" s="34">
         <v>262676</v>
       </c>
@@ -14426,7 +14429,7 @@
       </c>
       <c r="C116" s="35"/>
     </row>
-    <row r="117" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A117" s="34">
         <v>262681</v>
       </c>
@@ -14436,7 +14439,7 @@
       </c>
       <c r="C117" s="35"/>
     </row>
-    <row r="118" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A118" s="34">
         <v>524416</v>
       </c>
@@ -14446,7 +14449,7 @@
       </c>
       <c r="C118" s="35"/>
     </row>
-    <row r="119" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A119" s="34">
         <v>524674</v>
       </c>
@@ -14456,7 +14459,7 @@
       </c>
       <c r="C119" s="35"/>
     </row>
-    <row r="120" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A120" s="34">
         <v>524675</v>
       </c>
@@ -14466,7 +14469,7 @@
       </c>
       <c r="C120" s="35"/>
     </row>
-    <row r="121" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A121" s="34">
         <v>524677</v>
       </c>
@@ -14476,7 +14479,7 @@
       </c>
       <c r="C121" s="35"/>
     </row>
-    <row r="122" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A122" s="34">
         <v>524820</v>
       </c>
@@ -14486,7 +14489,7 @@
       </c>
       <c r="C122" s="35"/>
     </row>
-    <row r="123" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A123" s="34">
         <v>524825</v>
       </c>
@@ -14496,7 +14499,7 @@
       </c>
       <c r="C123" s="35"/>
     </row>
-    <row r="124" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A124" s="34">
         <v>525313</v>
       </c>
@@ -14506,7 +14509,7 @@
       </c>
       <c r="C124" s="35"/>
     </row>
-    <row r="125" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A125" s="34">
         <v>525314</v>
       </c>
@@ -14516,7 +14519,7 @@
       </c>
       <c r="C125" s="35"/>
     </row>
-    <row r="126" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A126" s="34">
         <v>525315</v>
       </c>
@@ -14526,7 +14529,7 @@
       </c>
       <c r="C126" s="35"/>
     </row>
-    <row r="127" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A127" s="34">
         <v>525844</v>
       </c>
@@ -14536,7 +14539,7 @@
       </c>
       <c r="C127" s="35"/>
     </row>
-    <row r="128" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A128" s="34">
         <v>540800</v>
       </c>
@@ -14546,7 +14549,7 @@
       </c>
       <c r="C128" s="35"/>
     </row>
-    <row r="129" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A129" s="34">
         <v>540825</v>
       </c>
@@ -14556,7 +14559,7 @@
       </c>
       <c r="C129" s="35"/>
     </row>
-    <row r="130" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A130" s="34">
         <v>541058</v>
       </c>
@@ -14566,7 +14569,7 @@
       </c>
       <c r="C130" s="35"/>
     </row>
-    <row r="131" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A131" s="34">
         <v>541209</v>
       </c>
@@ -14576,7 +14579,7 @@
       </c>
       <c r="C131" s="35"/>
     </row>
-    <row r="132" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A132" s="34">
         <v>541697</v>
       </c>
@@ -14586,7 +14589,7 @@
       </c>
       <c r="C132" s="35"/>
     </row>
-    <row r="133" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A133" s="34">
         <v>542233</v>
       </c>
@@ -14596,7 +14599,7 @@
       </c>
       <c r="C133" s="35"/>
     </row>
-    <row r="134" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A134" s="34">
         <v>542848</v>
       </c>
@@ -14606,7 +14609,7 @@
       </c>
       <c r="C134" s="35"/>
     </row>
-    <row r="135" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A135" s="14">
         <v>543106</v>
       </c>
@@ -14618,7 +14621,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A136" s="34">
         <v>543257</v>
       </c>
@@ -14628,7 +14631,7 @@
       </c>
       <c r="C136" s="35"/>
     </row>
-    <row r="137" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A137" s="14">
         <v>547548</v>
       </c>
@@ -14640,7 +14643,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A138" s="34">
         <v>558617</v>
       </c>
@@ -14650,7 +14653,7 @@
       </c>
       <c r="C138" s="35"/>
     </row>
-    <row r="139" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A139" s="14">
         <v>573568</v>
       </c>
@@ -14662,7 +14665,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A140" s="34">
         <v>573593</v>
       </c>
@@ -14672,7 +14675,7 @@
       </c>
       <c r="C140" s="35"/>
     </row>
-    <row r="141" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A141" s="34">
         <v>4194432</v>
       </c>
@@ -14682,7 +14685,7 @@
       </c>
       <c r="C141" s="35"/>
     </row>
-    <row r="142" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A142" s="34">
         <v>4194454</v>
       </c>
@@ -14692,7 +14695,7 @@
       </c>
       <c r="C142" s="35"/>
     </row>
-    <row r="143" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A143" s="34">
         <v>4194690</v>
       </c>
@@ -14702,7 +14705,7 @@
       </c>
       <c r="C143" s="35"/>
     </row>
-    <row r="144" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A144" s="34">
         <v>4194841</v>
       </c>
@@ -14712,7 +14715,7 @@
       </c>
       <c r="C144" s="35"/>
     </row>
-    <row r="145" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A145" s="34">
         <v>4195329</v>
       </c>
@@ -14722,7 +14725,7 @@
       </c>
       <c r="C145" s="35"/>
     </row>
-    <row r="146" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A146" s="34">
         <v>4196503</v>
       </c>
@@ -14732,7 +14735,7 @@
       </c>
       <c r="C146" s="35"/>
     </row>
-    <row r="147" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A147" s="34">
         <v>4196523</v>
       </c>
@@ -14763,14 +14766,14 @@
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.453125" customWidth="1"/>
-    <col min="2" max="3" width="39.453125" customWidth="1"/>
-    <col min="4" max="4" width="54.81640625" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="3" width="39.42578125" customWidth="1"/>
+    <col min="4" max="4" width="54.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>922</v>
       </c>
@@ -14784,7 +14787,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>336</v>
       </c>
@@ -14794,7 +14797,7 @@
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -14808,7 +14811,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -14820,7 +14823,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <v>16</v>
       </c>
@@ -14832,7 +14835,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>64</v>
       </c>
@@ -14846,7 +14849,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>65</v>
       </c>
@@ -14860,7 +14863,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <v>67</v>
       </c>
@@ -14872,7 +14875,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>71</v>
       </c>
@@ -14884,7 +14887,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>80</v>
       </c>
@@ -14898,7 +14901,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>81</v>
       </c>
@@ -14912,7 +14915,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>88</v>
       </c>
@@ -14924,7 +14927,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>192</v>
       </c>
@@ -14936,7 +14939,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>193</v>
       </c>
@@ -14948,7 +14951,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
         <v>208</v>
       </c>
@@ -14960,7 +14963,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>256</v>
       </c>
@@ -14974,7 +14977,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>257</v>
       </c>
@@ -14988,7 +14991,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9">
         <v>259</v>
       </c>
@@ -15000,7 +15003,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9">
         <v>263</v>
       </c>
@@ -15012,7 +15015,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>272</v>
       </c>
@@ -15026,7 +15029,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9">
         <v>273</v>
       </c>
@@ -15038,7 +15041,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9">
         <v>320</v>
       </c>
@@ -15050,7 +15053,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="9">
         <v>321</v>
       </c>
@@ -15062,7 +15065,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="9">
         <v>464</v>
       </c>
@@ -15092,14 +15095,14 @@
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.453125" customWidth="1"/>
-    <col min="4" max="4" width="43.1796875" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="4" max="4" width="43.140625" customWidth="1"/>
     <col min="11" max="11" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="51" t="s">
         <v>978</v>
       </c>
@@ -15134,7 +15137,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="54" t="s">
         <v>987</v>
       </c>
@@ -15167,7 +15170,7 @@
       </c>
       <c r="K2" s="56"/>
     </row>
-    <row r="3" spans="1:11" ht="12.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A3" s="57"/>
       <c r="B3" s="55" t="s">
         <v>990</v>
@@ -15184,7 +15187,7 @@
       <c r="J3" s="58"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="54" t="s">
         <v>992</v>
       </c>
@@ -15217,7 +15220,7 @@
       </c>
       <c r="K4" s="56"/>
     </row>
-    <row r="5" spans="1:11" ht="12.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A5" s="57"/>
       <c r="B5" s="55" t="s">
         <v>1000</v>
@@ -15234,7 +15237,7 @@
       <c r="J5" s="56"/>
       <c r="K5" s="56"/>
     </row>
-    <row r="6" spans="1:11" ht="12.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A6" s="57"/>
       <c r="B6" s="55" t="s">
         <v>1002</v>
@@ -15251,7 +15254,7 @@
       <c r="J6" s="56"/>
       <c r="K6" s="56"/>
     </row>
-    <row r="7" spans="1:11" ht="12.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A7" s="57"/>
       <c r="B7" s="55" t="s">
         <v>1004</v>
@@ -15268,7 +15271,7 @@
       <c r="J7" s="56"/>
       <c r="K7" s="56"/>
     </row>
-    <row r="8" spans="1:11" ht="12.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A8" s="57"/>
       <c r="B8" s="55" t="s">
         <v>1006</v>
@@ -15285,7 +15288,7 @@
       <c r="J8" s="56"/>
       <c r="K8" s="56"/>
     </row>
-    <row r="9" spans="1:11" ht="12.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A9" s="57"/>
       <c r="B9" s="55" t="s">
         <v>1008</v>
@@ -15302,7 +15305,7 @@
       <c r="J9" s="56"/>
       <c r="K9" s="56"/>
     </row>
-    <row r="10" spans="1:11" ht="12.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A10" s="57"/>
       <c r="B10" s="55" t="s">
         <v>1010</v>
@@ -15321,7 +15324,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="54" t="s">
         <v>1013</v>
       </c>
@@ -15354,7 +15357,7 @@
       </c>
       <c r="K11" s="56"/>
     </row>
-    <row r="12" spans="1:11" ht="12.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A12" s="57"/>
       <c r="B12" s="55" t="s">
         <v>1017</v>
@@ -15371,7 +15374,7 @@
       <c r="J12" s="56"/>
       <c r="K12" s="56"/>
     </row>
-    <row r="13" spans="1:11" ht="12.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A13" s="57"/>
       <c r="B13" s="55" t="s">
         <v>1019</v>
@@ -15388,7 +15391,7 @@
       <c r="J13" s="56"/>
       <c r="K13" s="56"/>
     </row>
-    <row r="14" spans="1:11" ht="12.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A14" s="57"/>
       <c r="B14" s="55" t="s">
         <v>1021</v>
@@ -15405,7 +15408,7 @@
       <c r="J14" s="56"/>
       <c r="K14" s="56"/>
     </row>
-    <row r="15" spans="1:11" ht="12.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A15" s="57"/>
       <c r="B15" s="55" t="s">
         <v>1023</v>
@@ -15422,7 +15425,7 @@
       <c r="J15" s="56"/>
       <c r="K15" s="56"/>
     </row>
-    <row r="16" spans="1:11" ht="13" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A16" s="63" t="s">
         <v>1025</v>
       </c>
@@ -15455,7 +15458,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="12.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A17" s="57"/>
       <c r="B17" s="55" t="s">
         <v>1030</v>
@@ -15474,7 +15477,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="54" t="s">
         <v>1032</v>
       </c>
@@ -15507,7 +15510,7 @@
       </c>
       <c r="K18" s="56"/>
     </row>
-    <row r="19" spans="1:11" ht="12.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A19" s="57"/>
       <c r="B19" s="55" t="s">
         <v>1035</v>
@@ -15524,7 +15527,7 @@
       <c r="J19" s="56"/>
       <c r="K19" s="56"/>
     </row>
-    <row r="20" spans="1:11" ht="12.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A20" s="57"/>
       <c r="B20" s="55" t="s">
         <v>1037</v>
@@ -15541,7 +15544,7 @@
       <c r="J20" s="56"/>
       <c r="K20" s="56"/>
     </row>
-    <row r="21" spans="1:11" ht="12.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A21" s="57"/>
       <c r="B21" s="55" t="s">
         <v>1039</v>
@@ -15558,7 +15561,7 @@
       <c r="J21" s="56"/>
       <c r="K21" s="56"/>
     </row>
-    <row r="22" spans="1:11" ht="12.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A22" s="57"/>
       <c r="B22" s="55" t="s">
         <v>1041</v>
@@ -15575,7 +15578,7 @@
       <c r="J22" s="56"/>
       <c r="K22" s="56"/>
     </row>
-    <row r="23" spans="1:11" ht="13" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A23" s="63" t="s">
         <v>1043</v>
       </c>
@@ -15608,7 +15611,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="12.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A24" s="57"/>
       <c r="B24" s="23">
         <v>8389906</v>
@@ -15627,7 +15630,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="12.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A25" s="57"/>
       <c r="B25" s="23">
         <v>10487058</v>
@@ -15644,7 +15647,7 @@
       <c r="J25" s="56"/>
       <c r="K25" s="56"/>
     </row>
-    <row r="26" spans="1:11" ht="25.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A26" s="54" t="s">
         <v>1048</v>
       </c>
@@ -15677,7 +15680,7 @@
       </c>
       <c r="K26" s="56"/>
     </row>
-    <row r="27" spans="1:11" ht="25.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A27" s="54" t="s">
         <v>1052</v>
       </c>
@@ -15710,7 +15713,7 @@
       </c>
       <c r="K27" s="56"/>
     </row>
-    <row r="28" spans="1:11" ht="12.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A28" s="57"/>
       <c r="B28" s="55" t="s">
         <v>1056</v>
@@ -15727,7 +15730,7 @@
       <c r="J28" s="56"/>
       <c r="K28" s="56"/>
     </row>
-    <row r="29" spans="1:11" ht="12.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A29" s="57"/>
       <c r="B29" s="55" t="s">
         <v>1058</v>
@@ -15744,7 +15747,7 @@
       <c r="J29" s="56"/>
       <c r="K29" s="56"/>
     </row>
-    <row r="30" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A30" s="54" t="s">
         <v>1060</v>
       </c>
@@ -15777,7 +15780,7 @@
       </c>
       <c r="K30" s="56"/>
     </row>
-    <row r="31" spans="1:11" ht="12.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A31" s="57"/>
       <c r="B31" s="55" t="s">
         <v>1065</v>
@@ -15794,7 +15797,7 @@
       <c r="J31" s="56"/>
       <c r="K31" s="56"/>
     </row>
-    <row r="32" spans="1:11" ht="12.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A32" s="57"/>
       <c r="B32" s="55" t="s">
         <v>1067</v>
@@ -15811,7 +15814,7 @@
       <c r="J32" s="56"/>
       <c r="K32" s="56"/>
     </row>
-    <row r="33" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A33" s="54" t="s">
         <v>1069</v>
       </c>
@@ -15844,7 +15847,7 @@
       </c>
       <c r="K33" s="56"/>
     </row>
-    <row r="34" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A34" s="54" t="s">
         <v>1074</v>
       </c>
@@ -15877,7 +15880,7 @@
       </c>
       <c r="K34" s="56"/>
     </row>
-    <row r="35" spans="1:11" ht="25.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A35" s="54" t="s">
         <v>1078</v>
       </c>
@@ -15910,7 +15913,7 @@
       </c>
       <c r="K35" s="56"/>
     </row>
-    <row r="36" spans="1:11" ht="13" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A36" s="63" t="s">
         <v>1082</v>
       </c>
@@ -15929,7 +15932,7 @@
       <c r="J36" s="56"/>
       <c r="K36" s="56"/>
     </row>
-    <row r="37" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="54" t="s">
         <v>1084</v>
       </c>
@@ -15980,16 +15983,16 @@
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.26953125" customWidth="1"/>
-    <col min="2" max="2" width="29.453125" customWidth="1"/>
-    <col min="3" max="3" width="29.81640625" customWidth="1"/>
-    <col min="4" max="4" width="30.81640625" customWidth="1"/>
-    <col min="5" max="5" width="29.7265625" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" customWidth="1"/>
+    <col min="4" max="4" width="30.85546875" customWidth="1"/>
+    <col min="5" max="5" width="29.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="72" t="s">
         <v>922</v>
       </c>
@@ -16006,16 +16009,16 @@
         <v>997</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+    <row r="2" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="83" t="s">
         <v>1090</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-    </row>
-    <row r="3" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+    </row>
+    <row r="3" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="55">
         <v>2114</v>
       </c>
@@ -16032,7 +16035,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="55" t="s">
         <v>1095</v>
       </c>
@@ -16049,7 +16052,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="12.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A5" s="55" t="s">
         <v>1097</v>
       </c>
@@ -16060,7 +16063,7 @@
       <c r="D5" s="58"/>
       <c r="E5" s="58"/>
     </row>
-    <row r="6" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="55">
         <v>10273</v>
       </c>
@@ -16077,7 +16080,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="55" t="s">
         <v>1101</v>
       </c>
@@ -16094,7 +16097,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="12.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A8" s="55" t="s">
         <v>1103</v>
       </c>
@@ -16105,7 +16108,7 @@
       <c r="D8" s="58"/>
       <c r="E8" s="58"/>
     </row>
-    <row r="9" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="55" t="s">
         <v>1105</v>
       </c>
@@ -16122,7 +16125,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="55" t="s">
         <v>1108</v>
       </c>
@@ -16139,7 +16142,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="55">
         <v>40960</v>
       </c>
@@ -16156,7 +16159,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="55">
         <v>51266</v>
       </c>
@@ -16173,7 +16176,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="55" t="s">
         <v>1115</v>
       </c>
@@ -16211,14 +16214,14 @@
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
     <col min="4" max="4" width="85" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1117</v>
       </c>
@@ -16232,7 +16235,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="73">
         <v>32768</v>
       </c>
@@ -16247,7 +16250,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="73">
         <f t="shared" ref="A3:A61" si="1">SUM(A2, 1)</f>
         <v>32769</v>
@@ -16261,7 +16264,7 @@
       </c>
       <c r="D3" s="74"/>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="73">
         <f t="shared" si="1"/>
         <v>32770</v>
@@ -16275,7 +16278,7 @@
       </c>
       <c r="D4" s="74"/>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="73">
         <f t="shared" si="1"/>
         <v>32771</v>
@@ -16291,7 +16294,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="73">
         <f t="shared" si="1"/>
         <v>32772</v>
@@ -16305,7 +16308,7 @@
       </c>
       <c r="D6" s="74"/>
     </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="73">
         <f t="shared" si="1"/>
         <v>32773</v>
@@ -16317,7 +16320,7 @@
       <c r="C7" s="74"/>
       <c r="D7" s="74"/>
     </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="73">
         <f t="shared" si="1"/>
         <v>32774</v>
@@ -16329,7 +16332,7 @@
       <c r="C8" s="74"/>
       <c r="D8" s="74"/>
     </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="73">
         <f t="shared" si="1"/>
         <v>32775</v>
@@ -16341,7 +16344,7 @@
       <c r="C9" s="74"/>
       <c r="D9" s="74"/>
     </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="73">
         <f t="shared" si="1"/>
         <v>32776</v>
@@ -16353,7 +16356,7 @@
       <c r="C10" s="74"/>
       <c r="D10" s="74"/>
     </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="73">
         <f t="shared" si="1"/>
         <v>32777</v>
@@ -16365,7 +16368,7 @@
       <c r="C11" s="74"/>
       <c r="D11" s="74"/>
     </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="73">
         <f t="shared" si="1"/>
         <v>32778</v>
@@ -16377,7 +16380,7 @@
       <c r="C12" s="74"/>
       <c r="D12" s="74"/>
     </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="73">
         <f t="shared" si="1"/>
         <v>32779</v>
@@ -16389,7 +16392,7 @@
       <c r="C13" s="74"/>
       <c r="D13" s="74"/>
     </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="73">
         <f t="shared" si="1"/>
         <v>32780</v>
@@ -16401,7 +16404,7 @@
       <c r="C14" s="74"/>
       <c r="D14" s="74"/>
     </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="73">
         <f t="shared" si="1"/>
         <v>32781</v>
@@ -16417,7 +16420,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="73">
         <f t="shared" si="1"/>
         <v>32782</v>
@@ -16431,7 +16434,7 @@
       </c>
       <c r="D16" s="74"/>
     </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="73">
         <f t="shared" si="1"/>
         <v>32783</v>
@@ -16447,7 +16450,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="73">
         <f t="shared" si="1"/>
         <v>32784</v>
@@ -16461,7 +16464,7 @@
       </c>
       <c r="D18" s="74"/>
     </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="73">
         <f t="shared" si="1"/>
         <v>32785</v>
@@ -16475,7 +16478,7 @@
       </c>
       <c r="D19" s="74"/>
     </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="73">
         <f t="shared" si="1"/>
         <v>32786</v>
@@ -16487,7 +16490,7 @@
       <c r="C20" s="74"/>
       <c r="D20" s="74"/>
     </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="73">
         <f t="shared" si="1"/>
         <v>32787</v>
@@ -16501,7 +16504,7 @@
       </c>
       <c r="D21" s="74"/>
     </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="73">
         <f t="shared" si="1"/>
         <v>32788</v>
@@ -16515,7 +16518,7 @@
       </c>
       <c r="D22" s="74"/>
     </row>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="73">
         <f t="shared" si="1"/>
         <v>32789</v>
@@ -16529,7 +16532,7 @@
       </c>
       <c r="D23" s="74"/>
     </row>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="73">
         <f t="shared" si="1"/>
         <v>32790</v>
@@ -16543,7 +16546,7 @@
       </c>
       <c r="D24" s="74"/>
     </row>
-    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="73">
         <f t="shared" si="1"/>
         <v>32791</v>
@@ -16559,7 +16562,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="73">
         <f t="shared" si="1"/>
         <v>32792</v>
@@ -16575,7 +16578,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="73">
         <f t="shared" si="1"/>
         <v>32793</v>
@@ -16591,7 +16594,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="73">
         <f t="shared" si="1"/>
         <v>32794</v>
@@ -16607,7 +16610,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="73">
         <f t="shared" si="1"/>
         <v>32795</v>
@@ -16623,7 +16626,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="73">
         <f t="shared" si="1"/>
         <v>32796</v>
@@ -16639,7 +16642,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="73">
         <f t="shared" si="1"/>
         <v>32797</v>
@@ -16651,7 +16654,7 @@
       <c r="C31" s="74"/>
       <c r="D31" s="74"/>
     </row>
-    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="73">
         <f t="shared" si="1"/>
         <v>32798</v>
@@ -16663,7 +16666,7 @@
       <c r="C32" s="74"/>
       <c r="D32" s="74"/>
     </row>
-    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="73">
         <f t="shared" si="1"/>
         <v>32799</v>
@@ -16675,7 +16678,7 @@
       <c r="C33" s="74"/>
       <c r="D33" s="74"/>
     </row>
-    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="73">
         <f t="shared" si="1"/>
         <v>32800</v>
@@ -16687,7 +16690,7 @@
       <c r="C34" s="74"/>
       <c r="D34" s="74"/>
     </row>
-    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="73">
         <f t="shared" si="1"/>
         <v>32801</v>
@@ -16703,7 +16706,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="73">
         <f t="shared" si="1"/>
         <v>32802</v>
@@ -16717,7 +16720,7 @@
       </c>
       <c r="D36" s="74"/>
     </row>
-    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="73">
         <f t="shared" si="1"/>
         <v>32803</v>
@@ -16733,7 +16736,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="73">
         <f t="shared" si="1"/>
         <v>32804</v>
@@ -16749,7 +16752,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="73">
         <f t="shared" si="1"/>
         <v>32805</v>
@@ -16765,7 +16768,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="73">
         <f t="shared" si="1"/>
         <v>32806</v>
@@ -16781,7 +16784,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="73">
         <f t="shared" si="1"/>
         <v>32807</v>
@@ -16793,7 +16796,7 @@
       <c r="C41" s="74"/>
       <c r="D41" s="74"/>
     </row>
-    <row r="42" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="73">
         <f t="shared" si="1"/>
         <v>32808</v>
@@ -16805,7 +16808,7 @@
       <c r="C42" s="74"/>
       <c r="D42" s="74"/>
     </row>
-    <row r="43" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="73">
         <f t="shared" si="1"/>
         <v>32809</v>
@@ -16817,7 +16820,7 @@
       <c r="C43" s="74"/>
       <c r="D43" s="74"/>
     </row>
-    <row r="44" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="73">
         <f t="shared" si="1"/>
         <v>32810</v>
@@ -16829,7 +16832,7 @@
       <c r="C44" s="74"/>
       <c r="D44" s="74"/>
     </row>
-    <row r="45" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="73">
         <f t="shared" si="1"/>
         <v>32811</v>
@@ -16841,7 +16844,7 @@
       <c r="C45" s="74"/>
       <c r="D45" s="74"/>
     </row>
-    <row r="46" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="73">
         <f t="shared" si="1"/>
         <v>32812</v>
@@ -16853,7 +16856,7 @@
       <c r="C46" s="74"/>
       <c r="D46" s="74"/>
     </row>
-    <row r="47" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="73">
         <f t="shared" si="1"/>
         <v>32813</v>
@@ -16865,7 +16868,7 @@
       <c r="C47" s="74"/>
       <c r="D47" s="74"/>
     </row>
-    <row r="48" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="73">
         <f t="shared" si="1"/>
         <v>32814</v>
@@ -16877,7 +16880,7 @@
       <c r="C48" s="74"/>
       <c r="D48" s="74"/>
     </row>
-    <row r="49" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="73">
         <f t="shared" si="1"/>
         <v>32815</v>
@@ -16889,7 +16892,7 @@
       <c r="C49" s="74"/>
       <c r="D49" s="74"/>
     </row>
-    <row r="50" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="73">
         <f t="shared" si="1"/>
         <v>32816</v>
@@ -16901,7 +16904,7 @@
       <c r="C50" s="74"/>
       <c r="D50" s="74"/>
     </row>
-    <row r="51" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="73">
         <f t="shared" si="1"/>
         <v>32817</v>
@@ -16915,7 +16918,7 @@
       </c>
       <c r="D51" s="74"/>
     </row>
-    <row r="52" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="73">
         <f t="shared" si="1"/>
         <v>32818</v>
@@ -16927,7 +16930,7 @@
       <c r="C52" s="74"/>
       <c r="D52" s="74"/>
     </row>
-    <row r="53" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="73">
         <f t="shared" si="1"/>
         <v>32819</v>
@@ -16939,7 +16942,7 @@
       <c r="C53" s="74"/>
       <c r="D53" s="74"/>
     </row>
-    <row r="54" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="73">
         <f t="shared" si="1"/>
         <v>32820</v>
@@ -16951,7 +16954,7 @@
       <c r="C54" s="74"/>
       <c r="D54" s="74"/>
     </row>
-    <row r="55" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="73">
         <f t="shared" si="1"/>
         <v>32821</v>
@@ -16963,7 +16966,7 @@
       <c r="C55" s="74"/>
       <c r="D55" s="74"/>
     </row>
-    <row r="56" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="73">
         <f t="shared" si="1"/>
         <v>32822</v>
@@ -16975,7 +16978,7 @@
       <c r="C56" s="74"/>
       <c r="D56" s="74"/>
     </row>
-    <row r="57" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="73">
         <f t="shared" si="1"/>
         <v>32823</v>
@@ -16987,7 +16990,7 @@
       <c r="C57" s="74"/>
       <c r="D57" s="74"/>
     </row>
-    <row r="58" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="73">
         <f t="shared" si="1"/>
         <v>32824</v>
@@ -16999,7 +17002,7 @@
       <c r="C58" s="74"/>
       <c r="D58" s="74"/>
     </row>
-    <row r="59" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="73">
         <f t="shared" si="1"/>
         <v>32825</v>
@@ -17015,7 +17018,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="73">
         <f t="shared" si="1"/>
         <v>32826</v>
@@ -17027,7 +17030,7 @@
       <c r="C60" s="74"/>
       <c r="D60" s="74"/>
     </row>
-    <row r="61" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="73">
         <f t="shared" si="1"/>
         <v>32827</v>
@@ -17058,13 +17061,13 @@
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.81640625" customWidth="1"/>
-    <col min="2" max="2" width="60.54296875" customWidth="1"/>
+    <col min="1" max="1" width="39.85546875" customWidth="1"/>
+    <col min="2" max="2" width="60.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="75" t="s">
         <v>1161</v>
       </c>
@@ -17072,13 +17075,13 @@
         <v>325</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="81" t="s">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="84" t="s">
         <v>1162</v>
       </c>
-      <c r="B2" s="79"/>
-    </row>
-    <row r="3" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B2" s="82"/>
+    </row>
+    <row r="3" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
         <v>1163</v>
       </c>
@@ -17086,7 +17089,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
         <v>329</v>
       </c>
@@ -17094,7 +17097,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
         <v>332</v>
       </c>
@@ -17102,7 +17105,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
         <v>335</v>
       </c>
@@ -17110,7 +17113,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="s">
         <v>338</v>
       </c>
@@ -17118,7 +17121,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="23" t="s">
         <v>341</v>
       </c>
@@ -17126,7 +17129,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="s">
         <v>345</v>
       </c>
@@ -17134,7 +17137,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
         <v>368</v>
       </c>
@@ -17142,7 +17145,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="23" t="s">
         <v>1170</v>
       </c>
@@ -17150,7 +17153,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="23" t="s">
         <v>1172</v>
       </c>
@@ -17158,31 +17161,31 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="81" t="s">
+    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="84" t="s">
         <v>1174</v>
       </c>
-      <c r="B13" s="79"/>
-    </row>
-    <row r="14" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="82" t="s">
+      <c r="B13" s="82"/>
+    </row>
+    <row r="14" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="85" t="s">
         <v>1175</v>
       </c>
-      <c r="B14" s="79"/>
-    </row>
-    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="81" t="s">
+      <c r="B14" s="82"/>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="84" t="s">
         <v>1176</v>
       </c>
-      <c r="B15" s="79"/>
-    </row>
-    <row r="16" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="82" t="s">
+      <c r="B15" s="82"/>
+    </row>
+    <row r="16" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="85" t="s">
         <v>1177</v>
       </c>
-      <c r="B16" s="79"/>
-    </row>
-    <row r="17" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B16" s="82"/>
+    </row>
+    <row r="17" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="23" t="s">
         <v>327</v>
       </c>
@@ -17190,7 +17193,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="23" t="s">
         <v>1179</v>
       </c>
@@ -17198,7 +17201,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="23" t="s">
         <v>1181</v>
       </c>
@@ -17206,7 +17209,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="23" t="s">
         <v>1183</v>
       </c>
@@ -17214,7 +17217,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="23" t="s">
         <v>1185</v>
       </c>
@@ -17222,7 +17225,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="23" t="s">
         <v>1187</v>
       </c>
@@ -17230,7 +17233,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="23" t="s">
         <v>1189</v>
       </c>
@@ -17238,7 +17241,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="23" t="s">
         <v>1191</v>
       </c>
@@ -17246,7 +17249,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="23" t="s">
         <v>1193</v>
       </c>
@@ -17254,7 +17257,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="23" t="s">
         <v>1195</v>
       </c>
@@ -17262,19 +17265,19 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="81" t="s">
+    <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="84" t="s">
         <v>1197</v>
       </c>
-      <c r="B27" s="79"/>
-    </row>
-    <row r="28" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="82" t="s">
+      <c r="B27" s="82"/>
+    </row>
+    <row r="28" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="85" t="s">
         <v>1198</v>
       </c>
-      <c r="B28" s="79"/>
-    </row>
-    <row r="29" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B28" s="82"/>
+    </row>
+    <row r="29" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="23" t="s">
         <v>1199</v>
       </c>
@@ -17282,7 +17285,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="23" t="s">
         <v>1201</v>
       </c>
@@ -17290,7 +17293,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="23" t="s">
         <v>1203</v>
       </c>
@@ -17298,7 +17301,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="23" t="s">
         <v>1205</v>
       </c>
@@ -17306,13 +17309,13 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="81" t="s">
+    <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="84" t="s">
         <v>1207</v>
       </c>
-      <c r="B33" s="79"/>
-    </row>
-    <row r="34" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B33" s="82"/>
+    </row>
+    <row r="34" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="23" t="s">
         <v>327</v>
       </c>
@@ -17320,7 +17323,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="76" t="s">
         <v>1209</v>
       </c>
@@ -17328,7 +17331,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="76" t="s">
         <v>1179</v>
       </c>
@@ -17336,7 +17339,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="23" t="s">
         <v>1212</v>
       </c>
@@ -17344,7 +17347,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="76" t="s">
         <v>1181</v>
       </c>
@@ -17352,7 +17355,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="23" t="s">
         <v>1215</v>
       </c>
@@ -17360,7 +17363,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="23" t="s">
         <v>1217</v>
       </c>
@@ -17368,7 +17371,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="23" t="s">
         <v>1219</v>
       </c>
@@ -17376,7 +17379,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="76" t="s">
         <v>1183</v>
       </c>
@@ -17384,7 +17387,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="23" t="s">
         <v>1222</v>
       </c>
@@ -17392,7 +17395,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="23" t="s">
         <v>1224</v>
       </c>
@@ -17400,7 +17403,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="23" t="s">
         <v>1226</v>
       </c>
@@ -17408,7 +17411,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="23" t="s">
         <v>1228</v>
       </c>
@@ -17416,7 +17419,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="23" t="s">
         <v>1230</v>
       </c>
@@ -17424,7 +17427,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="23" t="s">
         <v>1232</v>
       </c>
@@ -17432,7 +17435,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="23" t="s">
         <v>1234</v>
       </c>
@@ -17440,7 +17443,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="23" t="s">
         <v>1185</v>
       </c>
@@ -17448,7 +17451,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="23" t="s">
         <v>1187</v>
       </c>
@@ -17456,7 +17459,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="23" t="s">
         <v>1189</v>
       </c>
@@ -17464,13 +17467,13 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="A53" s="81" t="s">
+    <row r="53" spans="1:2" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A53" s="84" t="s">
         <v>1239</v>
       </c>
-      <c r="B53" s="79"/>
-    </row>
-    <row r="54" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B53" s="82"/>
+    </row>
+    <row r="54" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="23" t="s">
         <v>327</v>
       </c>
@@ -17478,7 +17481,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="76" t="s">
         <v>1179</v>
       </c>
@@ -17486,7 +17489,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="76" t="s">
         <v>1181</v>
       </c>
@@ -17494,7 +17497,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="23" t="s">
         <v>1217</v>
       </c>
@@ -17502,7 +17505,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="76" t="s">
         <v>1183</v>
       </c>
@@ -17510,7 +17513,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="23" t="s">
         <v>1224</v>
       </c>
@@ -17518,7 +17521,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="23" t="s">
         <v>1228</v>
       </c>
@@ -17526,7 +17529,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="23" t="s">
         <v>1232</v>
       </c>
@@ -17534,7 +17537,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="76" t="s">
         <v>1185</v>
       </c>
@@ -17542,7 +17545,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="23" t="s">
         <v>1249</v>
       </c>
@@ -17550,7 +17553,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="23" t="s">
         <v>1251</v>
       </c>
@@ -17558,7 +17561,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="23" t="s">
         <v>1253</v>
       </c>
@@ -17566,7 +17569,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="23" t="s">
         <v>1255</v>
       </c>
@@ -17574,7 +17577,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="23" t="s">
         <v>1257</v>
       </c>
@@ -17582,7 +17585,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="23" t="s">
         <v>1259</v>
       </c>
@@ -17590,7 +17593,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="23" t="s">
         <v>1261</v>
       </c>
@@ -17598,13 +17601,13 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="A70" s="81" t="s">
+    <row r="70" spans="1:2" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A70" s="84" t="s">
         <v>1263</v>
       </c>
-      <c r="B70" s="79"/>
-    </row>
-    <row r="71" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B70" s="82"/>
+    </row>
+    <row r="71" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="23" t="s">
         <v>327</v>
       </c>
@@ -17612,7 +17615,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="23" t="s">
         <v>1181</v>
       </c>
@@ -17620,7 +17623,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="23" t="s">
         <v>1183</v>
       </c>
@@ -17628,7 +17631,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="23" t="s">
         <v>1185</v>
       </c>
@@ -17636,7 +17639,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="23" t="s">
         <v>1187</v>
       </c>
@@ -17644,13 +17647,13 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="A76" s="81" t="s">
+    <row r="76" spans="1:2" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A76" s="84" t="s">
         <v>1269</v>
       </c>
-      <c r="B76" s="79"/>
-    </row>
-    <row r="77" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B76" s="82"/>
+    </row>
+    <row r="77" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="23" t="s">
         <v>327</v>
       </c>
@@ -17658,7 +17661,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="23" t="s">
         <v>1187</v>
       </c>
@@ -17666,7 +17669,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="23" t="s">
         <v>1189</v>
       </c>
@@ -17674,7 +17677,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="23" t="s">
         <v>1191</v>
       </c>

--- a/Tekken 8 Moveset Editing Data.xlsx
+++ b/Tekken 8 Moveset Editing Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cs\Documents\GitHub\Tekken8Movesets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D8FCDDC-DF47-4404-AF29-B7A2029B8E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF69DCCC-EDF1-4DAD-82CD-CE5ABA0D4A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6313,6 +6313,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -6320,9 +6323,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -13126,15 +13126,15 @@
   <dimension ref="A1:C147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:C2"/>
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30.7109375" customWidth="1"/>
     <col min="2" max="2" width="33.42578125" customWidth="1"/>
-    <col min="3" max="3" width="84.140625" customWidth="1"/>
+    <col min="3" max="3" width="91.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13149,7 +13149,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="83" t="s">
         <v>924</v>
       </c>
       <c r="B2" s="82"/>
@@ -13709,7 +13709,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="48">
         <v>2304</v>
       </c>
@@ -16010,7 +16010,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="84" t="s">
         <v>1090</v>
       </c>
       <c r="B2" s="82"/>
@@ -17076,7 +17076,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="85" t="s">
         <v>1162</v>
       </c>
       <c r="B2" s="82"/>
@@ -17162,25 +17162,25 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="84" t="s">
+      <c r="A13" s="85" t="s">
         <v>1174</v>
       </c>
       <c r="B13" s="82"/>
     </row>
     <row r="14" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="85" t="s">
+      <c r="A14" s="86" t="s">
         <v>1175</v>
       </c>
       <c r="B14" s="82"/>
     </row>
     <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="84" t="s">
+      <c r="A15" s="85" t="s">
         <v>1176</v>
       </c>
       <c r="B15" s="82"/>
     </row>
     <row r="16" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="85" t="s">
+      <c r="A16" s="86" t="s">
         <v>1177</v>
       </c>
       <c r="B16" s="82"/>
@@ -17266,13 +17266,13 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="84" t="s">
+      <c r="A27" s="85" t="s">
         <v>1197</v>
       </c>
       <c r="B27" s="82"/>
     </row>
     <row r="28" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="85" t="s">
+      <c r="A28" s="86" t="s">
         <v>1198</v>
       </c>
       <c r="B28" s="82"/>
@@ -17310,7 +17310,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="84" t="s">
+      <c r="A33" s="85" t="s">
         <v>1207</v>
       </c>
       <c r="B33" s="82"/>
@@ -17468,7 +17468,7 @@
       </c>
     </row>
     <row r="53" spans="1:2" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="84" t="s">
+      <c r="A53" s="85" t="s">
         <v>1239</v>
       </c>
       <c r="B53" s="82"/>
@@ -17602,7 +17602,7 @@
       </c>
     </row>
     <row r="70" spans="1:2" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A70" s="84" t="s">
+      <c r="A70" s="85" t="s">
         <v>1263</v>
       </c>
       <c r="B70" s="82"/>
@@ -17648,7 +17648,7 @@
       </c>
     </row>
     <row r="76" spans="1:2" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="84" t="s">
+      <c r="A76" s="85" t="s">
         <v>1269</v>
       </c>
       <c r="B76" s="82"/>
